--- a/BrokenLinkValidator/Datatables/SiteMapUrl_CB9.xlsx
+++ b/BrokenLinkValidator/Datatables/SiteMapUrl_CB9.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WC Bradley Workspace\BrokenLinkValidator\Datatables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Broken Links Workspace\BrokenLinkValidator\Datatables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -874,237 +874,6 @@
     <t>https://www.charbroil.com/help</t>
   </si>
   <si>
-    <t>https://www.charbroil.com/rotisserie-bracket-support-g3600012w1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/weight-block-g4120030w1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/side-shelf-connection-brace-g4660029w3</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/bottom-shelf-g4720001w1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/rear-panel-upper-cart-g4720002w1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/bezel-for-control-knob-g6190017w1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/control-knob-g6190018w1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/igniter-switch-module-g6190019w1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/light-switch-for-bezel-g6190020w1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/Transformer-G6190052W1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/Ac-Dc-Converter-G6190053W1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/Electrode-Set-For-Main-Burner-900mm-Wire-G6190067W1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/lp-tank-shelf-g6193000w1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/Control-Panel-Top-Main-G6200003W1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/Control-Panel-Bottom-Main-G6200004W1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/Match-Holder-G6200005W1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/Rear-Panel-Lower-G6200007W1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/Rear-Panel-Upper-G6200008W1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/Heat-Shield-Firebox-G6200009W1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/Heat-Shield-For-Tank-G6200010W1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/Firebox-Bracket-G6200011W1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/Cart-Partition-Panel-Vertical-G6200013W1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/Cart-Partition-Panel-Horizontal-G6200014W1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/Top-Lid-Left-G6200100W1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/Top-Lid-Right-G6200200W1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/Bottom-Shelf-G6200500W1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/Firebox-G6203100W1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/Hose-Valve-Regulator-G6204100W1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/Upper-Door-Brace-G6206000W1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/Hardware-Pack-G620B001W1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/Weight-Block-G6510012W2</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/Handle-F8010029W1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/modular-outdoor-bar-top</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/4-burner-gas-griddle</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/modular-outdoor-tru-infrared-3-burner-gas-grill</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/modular-outdoor-stove-top</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/modular-outdoor-gas-griddle</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/modular-outdoor-refrigerator</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/modular-outdoor-corner-module</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/Rear-Panel-For-Firebox-G4720014W1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/Halogen-Light-Panel-G4720015W1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/Wind-Shield-G4720016W1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/Warming-Rack-G4720019W1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/Drawer-Front-G4720025W1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/Drawer-Frame-G4720026W1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/Electronic-Ignition-Module-G4720027W1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/Cooking-Grate-G4720028W1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/middle-cart-panel-g4720100w1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/shelf-frame-g4720400w1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/modular-outdoor-entertainment-module</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/rear-panel-lower-cart-g4720003w1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/control-panel-g4720005w1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/wire-harness-for-light-g4720007w1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/heat-shield-for-control-panel-g4720008w1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/Heat-Shield-For-Firebox-G4720010W1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/Heat-Shield-For-Valve-G4720011W1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/Heat-Shield-For-Drawer-G4720012W1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/Firebox-G4720013W1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/rear-panel-drawer-cart-g4720004w1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/Top-Lid-G4720500W1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/Handle-For-Lid-G4722100W1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/Door-Left-No-Handle-G4722200W1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/Door-Drawer-Handle-G4722300W1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/Door-Right-No-Handle-G4722400W1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/upper-door-brace-g4723000w1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/hose-valve-regulator-g4725000w1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/Heat-Shield-For-Tank-G4727000W1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/Wire-Clip-Top-Lid-G6080041W3</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/Wire-Clip-Ignitor-G6080041W4</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/door-stop-g6190002w1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/leveler-g6190006w1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/Rear-Panel-Upper-Cart-G6190008W1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/Rear-Panel-Lower-Cart-G6190009W1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/Rear-Panel-Drawer-Cart-G6190010W1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/Door-Magnet-G6190011W1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/Upper-Drawer-Brace-G6190012W1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/Firebox-Support-Right-G6190013W1</t>
-  </si>
-  <si>
     <t>https://www.charbroil.com/firebox-support-left-g6190014w1</t>
   </si>
   <si>
@@ -1837,9 +1606,6 @@
     <t>https://www.charbroil.com/hose-valve-regulator-g4703k00w1</t>
   </si>
   <si>
-    <t>https://www.charbroil.com/heat-tent-g5530002w1</t>
-  </si>
-  <si>
     <t>https://www.charbroil.com/front-panel-lower-g4214003w3</t>
   </si>
   <si>
@@ -1900,9 +1666,6 @@
     <t>https://www.charbroil.com/apple-simple-smokes-1</t>
   </si>
   <si>
-    <t>https://www.charbroil.com/universal-fit-heat-tent-2-1</t>
-  </si>
-  <si>
     <t>https://www.charbroil.com/traditional-4-burner-gas-grill</t>
   </si>
   <si>
@@ -1954,9 +1717,6 @@
     <t>https://www.charbroil.com/performance-series-tru-infrared-3-burner-gas-grill-463371119p1</t>
   </si>
   <si>
-    <t>https://www.charbroil.com/performance-series-tru-infrared-3-burner-gas-grill-463371319</t>
-  </si>
-  <si>
     <t>https://www.charbroil.com/performance-series-tru-infrared-3-burner-gas-grill-463371719</t>
   </si>
   <si>
@@ -2146,9 +1906,6 @@
     <t>https://www.charbroil.com/support-outage</t>
   </si>
   <si>
-    <t>https://www.charbroil.com/sweepstakes</t>
-  </si>
-  <si>
     <t>https://www.charbroil.com/ellenshow</t>
   </si>
   <si>
@@ -2206,9 +1963,6 @@
     <t>https://www.charbroil.com/cook/grilled-chorizo-stuffed-peppers/</t>
   </si>
   <si>
-    <t>https://www.charbroil.com/cook/queso-burger/</t>
-  </si>
-  <si>
     <t>https://www.charbroil.com/cook/grilled-lemonade/</t>
   </si>
   <si>
@@ -2671,7 +2425,253 @@
     <t>https://www.charbroil.com/learn/tips-for-rotisserie-cooking-on-a-grill/</t>
   </si>
   <si>
-    <t>https://www.charbroil.com/cook/tart-cherry-bbq-chicken/</t>
+    <t>https://www.charbroil.com/hardware-pack-g47026b001w1</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/storage-tray-g4214001w2</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/refrigerator-door-no-handle-a1070021w1</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/refrigerator-door-handle-with-ends-g2510023w1a</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/right-door-g6521501w2</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/damper-cb051637</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/universal-control-knob</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/hose-valve-regulator-g3216c00w1</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/heat-tent-g4700004w1a</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/rubber-bumper-with-hole-for-top-lid-g5270002w9</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/gas2coal-4-burner-hybrid-grill-463278419</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/cooking-grate-g3210005w1</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/cooking-grate-g3210006w1</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/tube-burner-g3214c00w1</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/heat-shield-for-electronic-ignition-module-g3215203w1</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/drip-pan-for-sideburner-g4704l01w1</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/sideburner-shelf-g4705l00w1</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/sideburner-g4707l00w1</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/tank-exclusion-wire-g6520008w1</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/sideburner-lid-g6522001w2</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/control-panel-main-g6525200w1</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/top-lid-g6520200w1a</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/lower-control-panel-g6520501w1a</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/hose-valve-regulator-g6520700w1a</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/lower-control-panel-g4705501w2</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/cooking-grate-g4210008w1</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/electronic-ignition-module-g4705503w1</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/front-panel-g2150501w2</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/leg-right-front-upper-g2151100w2</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/burner-g3200200w1a</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/heat-tent-g5530002w1a</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/kettleman-reg-tru-infrared-trade-charcoal-grill</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/air-intake-channel-upper-20891063a</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/char-broil-reg-family-meatriarch-apron</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/char-broil-reg-united-steaks-of-america-apron</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/char-broil-reg-wingin-rsquo-it-apron</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/char-broil-reg-grills-just-wanna-have-fun-apron</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/cap-for-smoke-stack-15202022408</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/performance-trade-tru-infrared-trade-3-burner-gas-grill</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/universal-propane-tank-gauge-1</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/universal-burner-heat-tent</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/cart-left-side-g432h600w1a</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/3-4-burner-performance-grill-cover-1</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/comfort-grip-trade-double-wide-spatula</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/the-big-easy-reg-grease-trays</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/gear-trax-reg-tool-knobs</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/aluminum-drip-pans</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/surefire-electronic-ignition-button-1</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/universal-cast-iron-grate-1</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/piezo-ignitor-dual-spark</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/universal-electronic-ignition-module-1</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/2008-commercial-series-grill-refresher-kit</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/2009-2012-commercial-series-grill-refresher-kit</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/2009-2012-commercial-series-grill-refresher-kit-1</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/2009-2012-commercial-series-grill-refresher-kit-2</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/2008-commercial-series-grill-refresher-kit-1</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/2009-2012-commercial-series-grill-refresher-kit-3</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/2009-2012-commercial-series-grill-refresher-kit-4</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/2009-2012-commercial-series-grill-refresher-kit-5</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/2009-2012-commercial-series-grill-refresher-kit-6</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/porcelain-cast-iron-burner</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/grill-talk</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/cook/grilled-skillet-cookie/</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/cook/grilled-new-york-strip-steak/</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/cook/breakfast-sliders/</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/cook/coffee-rubbed-strip-steak/</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/cook/grilled-honey-sriracha-chicken-thighs/</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/cook/grilled-scallops/</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/learn/how-to-use-a-charcoal-grill/</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/learn/how-to-grill-pizza/</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/cook/grilled-corn-4-ways/</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/cook/grilled-bbq-chicken-pizza/</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/cook/grilled-pepperoni-jalapeno-pizza/</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/cook/fall-off-the-bone-smoked-ribs/</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/learn/how-to-smoke-on-a-gas-grill/</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/cook/grilled-chicken-fajita-tacos/</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/cook/grilled-pork-chops-with-pineapple-salsa/</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/cook/grilled-jerk-chicken/</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/cook/grilled-chicken-pasta/</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/cook/grilled-banana-boats/</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/learn/how-to-grill-vegetables-6-ways/</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/cook/grilled-blackened-fish-tacos/</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/cook/queso-nacho-burger/</t>
   </si>
 </sst>
 </file>
@@ -2726,7 +2726,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2739,8 +2739,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -2776,6 +2782,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2785,7 +2804,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2798,7 +2817,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="5" builtinId="8"/>
@@ -5372,7 +5392,7 @@
   <dimension ref="A1:B601"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="A2" sqref="A2:A601"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5390,7 +5410,7 @@
     </row>
     <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
-        <v>4801</v>
+        <v>4800</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>284</v>
@@ -5398,15 +5418,15 @@
     </row>
     <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
-        <v>4802</v>
-      </c>
-      <c r="B3" s="6" t="s">
+        <v>4801</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
-        <v>4803</v>
+        <v>4802</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>286</v>
@@ -5414,15 +5434,15 @@
     </row>
     <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
-        <v>4804</v>
-      </c>
-      <c r="B5" s="6" t="s">
+        <v>4803</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
-        <v>4805</v>
+        <v>4804</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>288</v>
@@ -5430,15 +5450,15 @@
     </row>
     <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
-        <v>4806</v>
-      </c>
-      <c r="B7" s="6" t="s">
+        <v>4805</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
-        <v>4807</v>
+        <v>4806</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>290</v>
@@ -5446,15 +5466,15 @@
     </row>
     <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
-        <v>4808</v>
-      </c>
-      <c r="B9" s="6" t="s">
+        <v>4807</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
-        <v>4809</v>
+        <v>4808</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>292</v>
@@ -5462,15 +5482,15 @@
     </row>
     <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
-        <v>4810</v>
-      </c>
-      <c r="B11" s="6" t="s">
+        <v>4809</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>4811</v>
+        <v>4810</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>294</v>
@@ -5478,15 +5498,15 @@
     </row>
     <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
-        <v>4812</v>
-      </c>
-      <c r="B13" s="6" t="s">
+        <v>4811</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
-        <v>4813</v>
+        <v>4812</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>296</v>
@@ -5494,15 +5514,15 @@
     </row>
     <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
-        <v>4814</v>
-      </c>
-      <c r="B15" s="6" t="s">
+        <v>4813</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
-        <v>4815</v>
+        <v>4814</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>298</v>
@@ -5510,15 +5530,15 @@
     </row>
     <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
-        <v>4816</v>
-      </c>
-      <c r="B17" s="6" t="s">
+        <v>4815</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
-        <v>4817</v>
+        <v>4816</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>300</v>
@@ -5526,15 +5546,15 @@
     </row>
     <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
-        <v>4818</v>
-      </c>
-      <c r="B19" s="6" t="s">
+        <v>4817</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
-        <v>4819</v>
+        <v>4818</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>302</v>
@@ -5542,15 +5562,15 @@
     </row>
     <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
-        <v>4820</v>
-      </c>
-      <c r="B21" s="6" t="s">
+        <v>4819</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
-        <v>4821</v>
+        <v>4820</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>304</v>
@@ -5558,15 +5578,15 @@
     </row>
     <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
-        <v>4822</v>
-      </c>
-      <c r="B23" s="6" t="s">
+        <v>4821</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
-        <v>4823</v>
+        <v>4822</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>306</v>
@@ -5574,15 +5594,15 @@
     </row>
     <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
-        <v>4824</v>
-      </c>
-      <c r="B25" s="6" t="s">
+        <v>4823</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
-        <v>4825</v>
+        <v>4824</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>308</v>
@@ -5590,15 +5610,15 @@
     </row>
     <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
-        <v>4826</v>
-      </c>
-      <c r="B27" s="6" t="s">
+        <v>4825</v>
+      </c>
+      <c r="B27" s="7" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
-        <v>4827</v>
+        <v>4826</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>310</v>
@@ -5606,15 +5626,15 @@
     </row>
     <row r="29" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
-        <v>4828</v>
-      </c>
-      <c r="B29" s="6" t="s">
+        <v>4827</v>
+      </c>
+      <c r="B29" s="7" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
-        <v>4829</v>
+        <v>4828</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>312</v>
@@ -5622,15 +5642,15 @@
     </row>
     <row r="31" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
-        <v>4830</v>
-      </c>
-      <c r="B31" s="6" t="s">
+        <v>4829</v>
+      </c>
+      <c r="B31" s="7" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
-        <v>4831</v>
+        <v>4830</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>314</v>
@@ -5638,15 +5658,15 @@
     </row>
     <row r="33" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
-        <v>4832</v>
-      </c>
-      <c r="B33" s="6" t="s">
+        <v>4831</v>
+      </c>
+      <c r="B33" s="7" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
-        <v>4833</v>
+        <v>4832</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>316</v>
@@ -5654,15 +5674,15 @@
     </row>
     <row r="35" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
-        <v>4834</v>
-      </c>
-      <c r="B35" s="6" t="s">
+        <v>4833</v>
+      </c>
+      <c r="B35" s="7" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
-        <v>4835</v>
+        <v>4834</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>318</v>
@@ -5670,15 +5690,15 @@
     </row>
     <row r="37" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
-        <v>4836</v>
-      </c>
-      <c r="B37" s="6" t="s">
+        <v>4835</v>
+      </c>
+      <c r="B37" s="7" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
-        <v>4837</v>
+        <v>4836</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>320</v>
@@ -5686,15 +5706,15 @@
     </row>
     <row r="39" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
-        <v>4838</v>
-      </c>
-      <c r="B39" s="6" t="s">
+        <v>4837</v>
+      </c>
+      <c r="B39" s="7" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
-        <v>4839</v>
+        <v>4838</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>322</v>
@@ -5702,15 +5722,15 @@
     </row>
     <row r="41" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
-        <v>4840</v>
-      </c>
-      <c r="B41" s="6" t="s">
+        <v>4839</v>
+      </c>
+      <c r="B41" s="7" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
-        <v>4841</v>
+        <v>4840</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>324</v>
@@ -5718,15 +5738,15 @@
     </row>
     <row r="43" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
-        <v>4842</v>
-      </c>
-      <c r="B43" s="6" t="s">
+        <v>4841</v>
+      </c>
+      <c r="B43" s="7" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
-        <v>4843</v>
+        <v>4842</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>326</v>
@@ -5734,15 +5754,15 @@
     </row>
     <row r="45" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
-        <v>4844</v>
-      </c>
-      <c r="B45" s="6" t="s">
+        <v>4843</v>
+      </c>
+      <c r="B45" s="7" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
-        <v>4845</v>
+        <v>4844</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>328</v>
@@ -5750,15 +5770,15 @@
     </row>
     <row r="47" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
-        <v>4846</v>
-      </c>
-      <c r="B47" s="6" t="s">
+        <v>4845</v>
+      </c>
+      <c r="B47" s="7" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
-        <v>4847</v>
+        <v>4846</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>330</v>
@@ -5766,15 +5786,15 @@
     </row>
     <row r="49" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
-        <v>4848</v>
-      </c>
-      <c r="B49" s="6" t="s">
+        <v>4847</v>
+      </c>
+      <c r="B49" s="7" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
-        <v>4849</v>
+        <v>4848</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>332</v>
@@ -5782,15 +5802,15 @@
     </row>
     <row r="51" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
-        <v>4850</v>
-      </c>
-      <c r="B51" s="6" t="s">
+        <v>4849</v>
+      </c>
+      <c r="B51" s="7" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
-        <v>4851</v>
+        <v>4850</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>334</v>
@@ -5798,15 +5818,15 @@
     </row>
     <row r="53" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
-        <v>4852</v>
-      </c>
-      <c r="B53" s="6" t="s">
+        <v>4851</v>
+      </c>
+      <c r="B53" s="7" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
-        <v>4853</v>
+        <v>4852</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>336</v>
@@ -5814,15 +5834,15 @@
     </row>
     <row r="55" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
-        <v>4854</v>
-      </c>
-      <c r="B55" s="6" t="s">
+        <v>4853</v>
+      </c>
+      <c r="B55" s="7" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
-        <v>4855</v>
+        <v>4854</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>338</v>
@@ -5830,15 +5850,15 @@
     </row>
     <row r="57" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
-        <v>4856</v>
-      </c>
-      <c r="B57" s="6" t="s">
+        <v>4855</v>
+      </c>
+      <c r="B57" s="7" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
-        <v>4857</v>
+        <v>4856</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>340</v>
@@ -5846,15 +5866,15 @@
     </row>
     <row r="59" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
-        <v>4858</v>
-      </c>
-      <c r="B59" s="6" t="s">
+        <v>4857</v>
+      </c>
+      <c r="B59" s="7" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
-        <v>4859</v>
+        <v>4858</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>342</v>
@@ -5862,15 +5882,15 @@
     </row>
     <row r="61" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
-        <v>4860</v>
-      </c>
-      <c r="B61" s="6" t="s">
+        <v>4859</v>
+      </c>
+      <c r="B61" s="7" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
-        <v>4861</v>
+        <v>4860</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>344</v>
@@ -5878,15 +5898,15 @@
     </row>
     <row r="63" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
-        <v>4862</v>
-      </c>
-      <c r="B63" s="6" t="s">
+        <v>4861</v>
+      </c>
+      <c r="B63" s="7" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
-        <v>4863</v>
+        <v>4862</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>346</v>
@@ -5894,15 +5914,15 @@
     </row>
     <row r="65" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
-        <v>4864</v>
-      </c>
-      <c r="B65" s="6" t="s">
+        <v>4863</v>
+      </c>
+      <c r="B65" s="7" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
-        <v>4865</v>
+        <v>4864</v>
       </c>
       <c r="B66" s="6" t="s">
         <v>348</v>
@@ -5910,15 +5930,15 @@
     </row>
     <row r="67" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
-        <v>4866</v>
-      </c>
-      <c r="B67" s="6" t="s">
+        <v>4865</v>
+      </c>
+      <c r="B67" s="7" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
-        <v>4867</v>
+        <v>4866</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>350</v>
@@ -5926,15 +5946,15 @@
     </row>
     <row r="69" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
-        <v>4868</v>
-      </c>
-      <c r="B69" s="6" t="s">
+        <v>4867</v>
+      </c>
+      <c r="B69" s="7" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
-        <v>4869</v>
+        <v>4868</v>
       </c>
       <c r="B70" s="6" t="s">
         <v>352</v>
@@ -5942,15 +5962,15 @@
     </row>
     <row r="71" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
-        <v>4870</v>
-      </c>
-      <c r="B71" s="6" t="s">
+        <v>4869</v>
+      </c>
+      <c r="B71" s="7" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
-        <v>4871</v>
+        <v>4870</v>
       </c>
       <c r="B72" s="6" t="s">
         <v>354</v>
@@ -5958,15 +5978,15 @@
     </row>
     <row r="73" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
-        <v>4872</v>
-      </c>
-      <c r="B73" s="6" t="s">
+        <v>4871</v>
+      </c>
+      <c r="B73" s="7" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
-        <v>4873</v>
+        <v>4872</v>
       </c>
       <c r="B74" s="6" t="s">
         <v>356</v>
@@ -5974,15 +5994,15 @@
     </row>
     <row r="75" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
-        <v>4874</v>
-      </c>
-      <c r="B75" s="6" t="s">
+        <v>4873</v>
+      </c>
+      <c r="B75" s="7" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
-        <v>4875</v>
+        <v>4874</v>
       </c>
       <c r="B76" s="6" t="s">
         <v>358</v>
@@ -5990,15 +6010,15 @@
     </row>
     <row r="77" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
-        <v>4876</v>
-      </c>
-      <c r="B77" s="6" t="s">
+        <v>4875</v>
+      </c>
+      <c r="B77" s="7" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
-        <v>4877</v>
+        <v>4876</v>
       </c>
       <c r="B78" s="6" t="s">
         <v>360</v>
@@ -6006,15 +6026,15 @@
     </row>
     <row r="79" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
-        <v>4878</v>
-      </c>
-      <c r="B79" s="6" t="s">
+        <v>4877</v>
+      </c>
+      <c r="B79" s="7" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
-        <v>4879</v>
+        <v>4878</v>
       </c>
       <c r="B80" s="6" t="s">
         <v>362</v>
@@ -6022,15 +6042,15 @@
     </row>
     <row r="81" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
-        <v>4880</v>
-      </c>
-      <c r="B81" s="6" t="s">
+        <v>4879</v>
+      </c>
+      <c r="B81" s="7" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
-        <v>4881</v>
+        <v>4880</v>
       </c>
       <c r="B82" s="6" t="s">
         <v>364</v>
@@ -6038,15 +6058,15 @@
     </row>
     <row r="83" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
-        <v>4882</v>
-      </c>
-      <c r="B83" s="6" t="s">
+        <v>4881</v>
+      </c>
+      <c r="B83" s="7" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="5">
-        <v>4883</v>
+        <v>4882</v>
       </c>
       <c r="B84" s="6" t="s">
         <v>366</v>
@@ -6054,15 +6074,15 @@
     </row>
     <row r="85" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="5">
-        <v>4884</v>
-      </c>
-      <c r="B85" s="6" t="s">
+        <v>4883</v>
+      </c>
+      <c r="B85" s="7" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
-        <v>4885</v>
+        <v>4884</v>
       </c>
       <c r="B86" s="6" t="s">
         <v>368</v>
@@ -6070,15 +6090,15 @@
     </row>
     <row r="87" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" s="5">
-        <v>4886</v>
-      </c>
-      <c r="B87" s="6" t="s">
+        <v>4885</v>
+      </c>
+      <c r="B87" s="7" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="5">
-        <v>4887</v>
+        <v>4886</v>
       </c>
       <c r="B88" s="6" t="s">
         <v>370</v>
@@ -6086,15 +6106,15 @@
     </row>
     <row r="89" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="5">
-        <v>4888</v>
-      </c>
-      <c r="B89" s="6" t="s">
+        <v>4887</v>
+      </c>
+      <c r="B89" s="7" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A90" s="5">
-        <v>4889</v>
+        <v>4888</v>
       </c>
       <c r="B90" s="6" t="s">
         <v>372</v>
@@ -6102,15 +6122,15 @@
     </row>
     <row r="91" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A91" s="5">
-        <v>4890</v>
-      </c>
-      <c r="B91" s="6" t="s">
+        <v>4889</v>
+      </c>
+      <c r="B91" s="7" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" s="5">
-        <v>4891</v>
+        <v>4890</v>
       </c>
       <c r="B92" s="6" t="s">
         <v>374</v>
@@ -6118,15 +6138,15 @@
     </row>
     <row r="93" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A93" s="5">
-        <v>4892</v>
-      </c>
-      <c r="B93" s="6" t="s">
+        <v>4891</v>
+      </c>
+      <c r="B93" s="7" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A94" s="5">
-        <v>4893</v>
+        <v>4892</v>
       </c>
       <c r="B94" s="6" t="s">
         <v>376</v>
@@ -6134,15 +6154,15 @@
     </row>
     <row r="95" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A95" s="5">
-        <v>4894</v>
-      </c>
-      <c r="B95" s="6" t="s">
+        <v>4893</v>
+      </c>
+      <c r="B95" s="7" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A96" s="5">
-        <v>4895</v>
+        <v>4894</v>
       </c>
       <c r="B96" s="6" t="s">
         <v>378</v>
@@ -6150,15 +6170,15 @@
     </row>
     <row r="97" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" s="5">
-        <v>4896</v>
-      </c>
-      <c r="B97" s="6" t="s">
+        <v>4895</v>
+      </c>
+      <c r="B97" s="7" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" s="5">
-        <v>4897</v>
+        <v>4896</v>
       </c>
       <c r="B98" s="6" t="s">
         <v>380</v>
@@ -6166,15 +6186,15 @@
     </row>
     <row r="99" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A99" s="5">
-        <v>4898</v>
-      </c>
-      <c r="B99" s="6" t="s">
+        <v>4897</v>
+      </c>
+      <c r="B99" s="7" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A100" s="5">
-        <v>4899</v>
+        <v>4898</v>
       </c>
       <c r="B100" s="6" t="s">
         <v>382</v>
@@ -6182,15 +6202,15 @@
     </row>
     <row r="101" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A101" s="5">
-        <v>4900</v>
-      </c>
-      <c r="B101" s="6" t="s">
+        <v>4899</v>
+      </c>
+      <c r="B101" s="7" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A102" s="5">
-        <v>4901</v>
+        <v>4900</v>
       </c>
       <c r="B102" s="6" t="s">
         <v>384</v>
@@ -6198,15 +6218,15 @@
     </row>
     <row r="103" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A103" s="5">
-        <v>4902</v>
-      </c>
-      <c r="B103" s="6" t="s">
+        <v>4901</v>
+      </c>
+      <c r="B103" s="7" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A104" s="5">
-        <v>4903</v>
+        <v>4902</v>
       </c>
       <c r="B104" s="6" t="s">
         <v>386</v>
@@ -6214,15 +6234,15 @@
     </row>
     <row r="105" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A105" s="5">
-        <v>4904</v>
-      </c>
-      <c r="B105" s="6" t="s">
+        <v>4903</v>
+      </c>
+      <c r="B105" s="7" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A106" s="5">
-        <v>4905</v>
+        <v>4904</v>
       </c>
       <c r="B106" s="6" t="s">
         <v>388</v>
@@ -6230,15 +6250,15 @@
     </row>
     <row r="107" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A107" s="5">
-        <v>4906</v>
-      </c>
-      <c r="B107" s="6" t="s">
+        <v>4905</v>
+      </c>
+      <c r="B107" s="7" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A108" s="5">
-        <v>4907</v>
+        <v>4906</v>
       </c>
       <c r="B108" s="6" t="s">
         <v>390</v>
@@ -6246,15 +6266,15 @@
     </row>
     <row r="109" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A109" s="5">
-        <v>4908</v>
-      </c>
-      <c r="B109" s="6" t="s">
+        <v>4907</v>
+      </c>
+      <c r="B109" s="7" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A110" s="5">
-        <v>4909</v>
+        <v>4908</v>
       </c>
       <c r="B110" s="6" t="s">
         <v>392</v>
@@ -6262,15 +6282,15 @@
     </row>
     <row r="111" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A111" s="5">
-        <v>4910</v>
-      </c>
-      <c r="B111" s="6" t="s">
+        <v>4909</v>
+      </c>
+      <c r="B111" s="7" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A112" s="5">
-        <v>4911</v>
+        <v>4910</v>
       </c>
       <c r="B112" s="6" t="s">
         <v>394</v>
@@ -6278,15 +6298,15 @@
     </row>
     <row r="113" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A113" s="5">
-        <v>4912</v>
-      </c>
-      <c r="B113" s="6" t="s">
+        <v>4911</v>
+      </c>
+      <c r="B113" s="7" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A114" s="5">
-        <v>4913</v>
+        <v>4912</v>
       </c>
       <c r="B114" s="6" t="s">
         <v>396</v>
@@ -6294,15 +6314,15 @@
     </row>
     <row r="115" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A115" s="5">
-        <v>4914</v>
-      </c>
-      <c r="B115" s="6" t="s">
+        <v>4913</v>
+      </c>
+      <c r="B115" s="7" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A116" s="5">
-        <v>4915</v>
+        <v>4914</v>
       </c>
       <c r="B116" s="6" t="s">
         <v>398</v>
@@ -6310,15 +6330,15 @@
     </row>
     <row r="117" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A117" s="5">
-        <v>4916</v>
-      </c>
-      <c r="B117" s="6" t="s">
+        <v>4915</v>
+      </c>
+      <c r="B117" s="7" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A118" s="5">
-        <v>4917</v>
+        <v>4916</v>
       </c>
       <c r="B118" s="6" t="s">
         <v>400</v>
@@ -6326,15 +6346,15 @@
     </row>
     <row r="119" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A119" s="5">
-        <v>4918</v>
-      </c>
-      <c r="B119" s="6" t="s">
+        <v>4917</v>
+      </c>
+      <c r="B119" s="7" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A120" s="5">
-        <v>4919</v>
+        <v>4918</v>
       </c>
       <c r="B120" s="6" t="s">
         <v>402</v>
@@ -6342,15 +6362,15 @@
     </row>
     <row r="121" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A121" s="5">
-        <v>4920</v>
-      </c>
-      <c r="B121" s="6" t="s">
+        <v>4919</v>
+      </c>
+      <c r="B121" s="7" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A122" s="5">
-        <v>4921</v>
+        <v>4920</v>
       </c>
       <c r="B122" s="6" t="s">
         <v>404</v>
@@ -6358,15 +6378,15 @@
     </row>
     <row r="123" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A123" s="5">
-        <v>4922</v>
-      </c>
-      <c r="B123" s="6" t="s">
+        <v>4921</v>
+      </c>
+      <c r="B123" s="7" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A124" s="5">
-        <v>4923</v>
+        <v>4922</v>
       </c>
       <c r="B124" s="6" t="s">
         <v>406</v>
@@ -6374,15 +6394,15 @@
     </row>
     <row r="125" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A125" s="5">
-        <v>4924</v>
-      </c>
-      <c r="B125" s="6" t="s">
+        <v>4923</v>
+      </c>
+      <c r="B125" s="7" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A126" s="5">
-        <v>4925</v>
+        <v>4924</v>
       </c>
       <c r="B126" s="6" t="s">
         <v>408</v>
@@ -6390,15 +6410,15 @@
     </row>
     <row r="127" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A127" s="5">
-        <v>4926</v>
-      </c>
-      <c r="B127" s="6" t="s">
+        <v>4925</v>
+      </c>
+      <c r="B127" s="7" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A128" s="5">
-        <v>4927</v>
+        <v>4926</v>
       </c>
       <c r="B128" s="6" t="s">
         <v>410</v>
@@ -6406,15 +6426,15 @@
     </row>
     <row r="129" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A129" s="5">
-        <v>4928</v>
-      </c>
-      <c r="B129" s="6" t="s">
+        <v>4927</v>
+      </c>
+      <c r="B129" s="7" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A130" s="5">
-        <v>4929</v>
+        <v>4928</v>
       </c>
       <c r="B130" s="6" t="s">
         <v>412</v>
@@ -6422,15 +6442,15 @@
     </row>
     <row r="131" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A131" s="5">
-        <v>4930</v>
-      </c>
-      <c r="B131" s="6" t="s">
+        <v>4929</v>
+      </c>
+      <c r="B131" s="7" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A132" s="5">
-        <v>4931</v>
+        <v>4930</v>
       </c>
       <c r="B132" s="6" t="s">
         <v>414</v>
@@ -6438,15 +6458,15 @@
     </row>
     <row r="133" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A133" s="5">
-        <v>4932</v>
-      </c>
-      <c r="B133" s="6" t="s">
+        <v>4931</v>
+      </c>
+      <c r="B133" s="7" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A134" s="5">
-        <v>4933</v>
+        <v>4932</v>
       </c>
       <c r="B134" s="6" t="s">
         <v>416</v>
@@ -6454,15 +6474,15 @@
     </row>
     <row r="135" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A135" s="5">
-        <v>4934</v>
-      </c>
-      <c r="B135" s="6" t="s">
+        <v>4933</v>
+      </c>
+      <c r="B135" s="7" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A136" s="5">
-        <v>4935</v>
+        <v>4934</v>
       </c>
       <c r="B136" s="6" t="s">
         <v>418</v>
@@ -6470,15 +6490,15 @@
     </row>
     <row r="137" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A137" s="5">
-        <v>4936</v>
-      </c>
-      <c r="B137" s="6" t="s">
+        <v>4935</v>
+      </c>
+      <c r="B137" s="7" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A138" s="5">
-        <v>4937</v>
+        <v>4936</v>
       </c>
       <c r="B138" s="6" t="s">
         <v>420</v>
@@ -6486,15 +6506,15 @@
     </row>
     <row r="139" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A139" s="5">
-        <v>4938</v>
-      </c>
-      <c r="B139" s="6" t="s">
+        <v>4937</v>
+      </c>
+      <c r="B139" s="7" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A140" s="5">
-        <v>4939</v>
+        <v>4938</v>
       </c>
       <c r="B140" s="6" t="s">
         <v>422</v>
@@ -6502,15 +6522,15 @@
     </row>
     <row r="141" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A141" s="5">
-        <v>4940</v>
-      </c>
-      <c r="B141" s="6" t="s">
+        <v>4939</v>
+      </c>
+      <c r="B141" s="7" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A142" s="5">
-        <v>4941</v>
+        <v>4940</v>
       </c>
       <c r="B142" s="6" t="s">
         <v>424</v>
@@ -6518,15 +6538,15 @@
     </row>
     <row r="143" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A143" s="5">
-        <v>4942</v>
-      </c>
-      <c r="B143" s="6" t="s">
+        <v>4941</v>
+      </c>
+      <c r="B143" s="7" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A144" s="5">
-        <v>4943</v>
+        <v>4942</v>
       </c>
       <c r="B144" s="6" t="s">
         <v>426</v>
@@ -6534,15 +6554,15 @@
     </row>
     <row r="145" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A145" s="5">
-        <v>4944</v>
-      </c>
-      <c r="B145" s="6" t="s">
+        <v>4943</v>
+      </c>
+      <c r="B145" s="7" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A146" s="5">
-        <v>4945</v>
+        <v>4944</v>
       </c>
       <c r="B146" s="6" t="s">
         <v>428</v>
@@ -6550,15 +6570,15 @@
     </row>
     <row r="147" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A147" s="5">
-        <v>4946</v>
-      </c>
-      <c r="B147" s="6" t="s">
+        <v>4945</v>
+      </c>
+      <c r="B147" s="7" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A148" s="5">
-        <v>4947</v>
+        <v>4946</v>
       </c>
       <c r="B148" s="6" t="s">
         <v>430</v>
@@ -6566,15 +6586,15 @@
     </row>
     <row r="149" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A149" s="5">
-        <v>4948</v>
-      </c>
-      <c r="B149" s="6" t="s">
+        <v>4947</v>
+      </c>
+      <c r="B149" s="7" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A150" s="5">
-        <v>4949</v>
+        <v>4948</v>
       </c>
       <c r="B150" s="6" t="s">
         <v>432</v>
@@ -6582,15 +6602,15 @@
     </row>
     <row r="151" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A151" s="5">
-        <v>4950</v>
-      </c>
-      <c r="B151" s="6" t="s">
+        <v>4949</v>
+      </c>
+      <c r="B151" s="7" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A152" s="5">
-        <v>4951</v>
+        <v>4950</v>
       </c>
       <c r="B152" s="6" t="s">
         <v>434</v>
@@ -6598,15 +6618,15 @@
     </row>
     <row r="153" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A153" s="5">
-        <v>4952</v>
-      </c>
-      <c r="B153" s="6" t="s">
+        <v>4951</v>
+      </c>
+      <c r="B153" s="7" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A154" s="5">
-        <v>4953</v>
+        <v>4952</v>
       </c>
       <c r="B154" s="6" t="s">
         <v>436</v>
@@ -6614,15 +6634,15 @@
     </row>
     <row r="155" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A155" s="5">
-        <v>4954</v>
-      </c>
-      <c r="B155" s="6" t="s">
+        <v>4953</v>
+      </c>
+      <c r="B155" s="7" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A156" s="5">
-        <v>4955</v>
+        <v>4954</v>
       </c>
       <c r="B156" s="6" t="s">
         <v>438</v>
@@ -6630,15 +6650,15 @@
     </row>
     <row r="157" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A157" s="5">
-        <v>4956</v>
-      </c>
-      <c r="B157" s="6" t="s">
+        <v>4955</v>
+      </c>
+      <c r="B157" s="7" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A158" s="5">
-        <v>4957</v>
+        <v>4956</v>
       </c>
       <c r="B158" s="6" t="s">
         <v>440</v>
@@ -6646,15 +6666,15 @@
     </row>
     <row r="159" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A159" s="5">
-        <v>4958</v>
-      </c>
-      <c r="B159" s="6" t="s">
+        <v>4957</v>
+      </c>
+      <c r="B159" s="7" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A160" s="5">
-        <v>4959</v>
+        <v>4958</v>
       </c>
       <c r="B160" s="6" t="s">
         <v>442</v>
@@ -6662,15 +6682,15 @@
     </row>
     <row r="161" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A161" s="5">
-        <v>4960</v>
-      </c>
-      <c r="B161" s="6" t="s">
+        <v>4959</v>
+      </c>
+      <c r="B161" s="7" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A162" s="5">
-        <v>4961</v>
+        <v>4960</v>
       </c>
       <c r="B162" s="6" t="s">
         <v>444</v>
@@ -6678,15 +6698,15 @@
     </row>
     <row r="163" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A163" s="5">
-        <v>4962</v>
-      </c>
-      <c r="B163" s="6" t="s">
+        <v>4961</v>
+      </c>
+      <c r="B163" s="7" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A164" s="5">
-        <v>4963</v>
+        <v>4962</v>
       </c>
       <c r="B164" s="6" t="s">
         <v>446</v>
@@ -6694,15 +6714,15 @@
     </row>
     <row r="165" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A165" s="5">
-        <v>4964</v>
-      </c>
-      <c r="B165" s="6" t="s">
+        <v>4963</v>
+      </c>
+      <c r="B165" s="7" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A166" s="5">
-        <v>4965</v>
+        <v>4964</v>
       </c>
       <c r="B166" s="6" t="s">
         <v>448</v>
@@ -6710,15 +6730,15 @@
     </row>
     <row r="167" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A167" s="5">
-        <v>4966</v>
-      </c>
-      <c r="B167" s="6" t="s">
+        <v>4965</v>
+      </c>
+      <c r="B167" s="7" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A168" s="5">
-        <v>4967</v>
+        <v>4966</v>
       </c>
       <c r="B168" s="6" t="s">
         <v>450</v>
@@ -6726,15 +6746,15 @@
     </row>
     <row r="169" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A169" s="5">
-        <v>4968</v>
-      </c>
-      <c r="B169" s="6" t="s">
+        <v>4967</v>
+      </c>
+      <c r="B169" s="7" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A170" s="5">
-        <v>4969</v>
+        <v>4968</v>
       </c>
       <c r="B170" s="6" t="s">
         <v>452</v>
@@ -6742,15 +6762,15 @@
     </row>
     <row r="171" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A171" s="5">
-        <v>4970</v>
-      </c>
-      <c r="B171" s="6" t="s">
+        <v>4969</v>
+      </c>
+      <c r="B171" s="7" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A172" s="5">
-        <v>4971</v>
+        <v>4970</v>
       </c>
       <c r="B172" s="6" t="s">
         <v>454</v>
@@ -6758,15 +6778,15 @@
     </row>
     <row r="173" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A173" s="5">
-        <v>4972</v>
-      </c>
-      <c r="B173" s="6" t="s">
+        <v>4971</v>
+      </c>
+      <c r="B173" s="7" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A174" s="5">
-        <v>4973</v>
+        <v>4972</v>
       </c>
       <c r="B174" s="6" t="s">
         <v>456</v>
@@ -6774,15 +6794,15 @@
     </row>
     <row r="175" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A175" s="5">
-        <v>4974</v>
-      </c>
-      <c r="B175" s="6" t="s">
+        <v>4973</v>
+      </c>
+      <c r="B175" s="7" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A176" s="5">
-        <v>4975</v>
+        <v>4974</v>
       </c>
       <c r="B176" s="6" t="s">
         <v>458</v>
@@ -6790,15 +6810,15 @@
     </row>
     <row r="177" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A177" s="5">
-        <v>4976</v>
-      </c>
-      <c r="B177" s="6" t="s">
+        <v>4975</v>
+      </c>
+      <c r="B177" s="7" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A178" s="5">
-        <v>4977</v>
+        <v>4976</v>
       </c>
       <c r="B178" s="6" t="s">
         <v>460</v>
@@ -6806,15 +6826,15 @@
     </row>
     <row r="179" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A179" s="5">
-        <v>4978</v>
-      </c>
-      <c r="B179" s="6" t="s">
+        <v>4977</v>
+      </c>
+      <c r="B179" s="7" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A180" s="5">
-        <v>4979</v>
+        <v>4978</v>
       </c>
       <c r="B180" s="6" t="s">
         <v>462</v>
@@ -6822,15 +6842,15 @@
     </row>
     <row r="181" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A181" s="5">
-        <v>4980</v>
-      </c>
-      <c r="B181" s="6" t="s">
+        <v>4979</v>
+      </c>
+      <c r="B181" s="7" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A182" s="5">
-        <v>4981</v>
+        <v>4980</v>
       </c>
       <c r="B182" s="6" t="s">
         <v>464</v>
@@ -6838,15 +6858,15 @@
     </row>
     <row r="183" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A183" s="5">
-        <v>4982</v>
-      </c>
-      <c r="B183" s="6" t="s">
+        <v>4981</v>
+      </c>
+      <c r="B183" s="7" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A184" s="5">
-        <v>4983</v>
+        <v>4982</v>
       </c>
       <c r="B184" s="6" t="s">
         <v>466</v>
@@ -6854,15 +6874,15 @@
     </row>
     <row r="185" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A185" s="5">
-        <v>4984</v>
-      </c>
-      <c r="B185" s="6" t="s">
+        <v>4983</v>
+      </c>
+      <c r="B185" s="7" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A186" s="5">
-        <v>4985</v>
+        <v>4984</v>
       </c>
       <c r="B186" s="6" t="s">
         <v>468</v>
@@ -6870,15 +6890,15 @@
     </row>
     <row r="187" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A187" s="5">
-        <v>4986</v>
-      </c>
-      <c r="B187" s="6" t="s">
+        <v>4985</v>
+      </c>
+      <c r="B187" s="7" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="188" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A188" s="5">
-        <v>4987</v>
+        <v>4986</v>
       </c>
       <c r="B188" s="6" t="s">
         <v>470</v>
@@ -6886,15 +6906,15 @@
     </row>
     <row r="189" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A189" s="5">
-        <v>4988</v>
-      </c>
-      <c r="B189" s="6" t="s">
+        <v>4987</v>
+      </c>
+      <c r="B189" s="7" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="190" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A190" s="5">
-        <v>4989</v>
+        <v>4988</v>
       </c>
       <c r="B190" s="6" t="s">
         <v>472</v>
@@ -6902,15 +6922,15 @@
     </row>
     <row r="191" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A191" s="5">
-        <v>4990</v>
-      </c>
-      <c r="B191" s="6" t="s">
+        <v>4989</v>
+      </c>
+      <c r="B191" s="7" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A192" s="5">
-        <v>4991</v>
+        <v>4990</v>
       </c>
       <c r="B192" s="6" t="s">
         <v>474</v>
@@ -6918,15 +6938,15 @@
     </row>
     <row r="193" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A193" s="5">
-        <v>4992</v>
-      </c>
-      <c r="B193" s="6" t="s">
+        <v>4991</v>
+      </c>
+      <c r="B193" s="7" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="194" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A194" s="5">
-        <v>4993</v>
+        <v>4992</v>
       </c>
       <c r="B194" s="6" t="s">
         <v>476</v>
@@ -6934,15 +6954,15 @@
     </row>
     <row r="195" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A195" s="5">
-        <v>4994</v>
-      </c>
-      <c r="B195" s="6" t="s">
+        <v>4993</v>
+      </c>
+      <c r="B195" s="7" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="196" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A196" s="5">
-        <v>4995</v>
+        <v>4994</v>
       </c>
       <c r="B196" s="6" t="s">
         <v>478</v>
@@ -6950,15 +6970,15 @@
     </row>
     <row r="197" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A197" s="5">
-        <v>4996</v>
-      </c>
-      <c r="B197" s="6" t="s">
+        <v>4995</v>
+      </c>
+      <c r="B197" s="7" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="198" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A198" s="5">
-        <v>4997</v>
+        <v>4996</v>
       </c>
       <c r="B198" s="6" t="s">
         <v>480</v>
@@ -6966,15 +6986,15 @@
     </row>
     <row r="199" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A199" s="5">
-        <v>4998</v>
-      </c>
-      <c r="B199" s="6" t="s">
+        <v>4997</v>
+      </c>
+      <c r="B199" s="7" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="200" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A200" s="5">
-        <v>4999</v>
+        <v>4998</v>
       </c>
       <c r="B200" s="6" t="s">
         <v>482</v>
@@ -6982,15 +7002,15 @@
     </row>
     <row r="201" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A201" s="5">
-        <v>5000</v>
-      </c>
-      <c r="B201" s="6" t="s">
+        <v>4999</v>
+      </c>
+      <c r="B201" s="7" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="202" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A202" s="5">
-        <v>5001</v>
+        <v>5000</v>
       </c>
       <c r="B202" s="6" t="s">
         <v>484</v>
@@ -6998,15 +7018,15 @@
     </row>
     <row r="203" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A203" s="5">
-        <v>5002</v>
-      </c>
-      <c r="B203" s="6" t="s">
+        <v>5001</v>
+      </c>
+      <c r="B203" s="7" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="204" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A204" s="5">
-        <v>5003</v>
+        <v>5002</v>
       </c>
       <c r="B204" s="6" t="s">
         <v>486</v>
@@ -7014,15 +7034,15 @@
     </row>
     <row r="205" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A205" s="5">
-        <v>5004</v>
-      </c>
-      <c r="B205" s="6" t="s">
+        <v>5003</v>
+      </c>
+      <c r="B205" s="7" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="206" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A206" s="5">
-        <v>5005</v>
+        <v>5004</v>
       </c>
       <c r="B206" s="6" t="s">
         <v>488</v>
@@ -7030,15 +7050,15 @@
     </row>
     <row r="207" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A207" s="5">
-        <v>5006</v>
-      </c>
-      <c r="B207" s="6" t="s">
+        <v>5005</v>
+      </c>
+      <c r="B207" s="7" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="208" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A208" s="5">
-        <v>5007</v>
+        <v>5006</v>
       </c>
       <c r="B208" s="6" t="s">
         <v>490</v>
@@ -7046,15 +7066,15 @@
     </row>
     <row r="209" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A209" s="5">
-        <v>5008</v>
-      </c>
-      <c r="B209" s="6" t="s">
+        <v>5007</v>
+      </c>
+      <c r="B209" s="7" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="210" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A210" s="5">
-        <v>5009</v>
+        <v>5008</v>
       </c>
       <c r="B210" s="6" t="s">
         <v>492</v>
@@ -7062,15 +7082,15 @@
     </row>
     <row r="211" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A211" s="5">
-        <v>5010</v>
-      </c>
-      <c r="B211" s="6" t="s">
+        <v>5009</v>
+      </c>
+      <c r="B211" s="7" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="212" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A212" s="5">
-        <v>5011</v>
+        <v>5010</v>
       </c>
       <c r="B212" s="6" t="s">
         <v>494</v>
@@ -7078,3114 +7098,3114 @@
     </row>
     <row r="213" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A213" s="5">
-        <v>5012</v>
-      </c>
-      <c r="B213" s="6" t="s">
-        <v>495</v>
+        <v>5011</v>
+      </c>
+      <c r="B213" s="7" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="214" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A214" s="5">
-        <v>5013</v>
+        <v>5012</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="215" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A215" s="5">
-        <v>5014</v>
-      </c>
-      <c r="B215" s="6" t="s">
-        <v>497</v>
+        <v>5013</v>
+      </c>
+      <c r="B215" s="7" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="216" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A216" s="5">
-        <v>5015</v>
+        <v>5014</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="217" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A217" s="5">
-        <v>5016</v>
-      </c>
-      <c r="B217" s="6" t="s">
-        <v>499</v>
+        <v>5015</v>
+      </c>
+      <c r="B217" s="7" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="218" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A218" s="5">
-        <v>5017</v>
+        <v>5016</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="219" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A219" s="5">
-        <v>5018</v>
-      </c>
-      <c r="B219" s="6" t="s">
-        <v>501</v>
+        <v>5017</v>
+      </c>
+      <c r="B219" s="7" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="220" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A220" s="5">
-        <v>5019</v>
+        <v>5018</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="221" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A221" s="5">
-        <v>5020</v>
-      </c>
-      <c r="B221" s="6" t="s">
-        <v>503</v>
+        <v>5019</v>
+      </c>
+      <c r="B221" s="7" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="222" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A222" s="5">
-        <v>5021</v>
+        <v>5020</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="223" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A223" s="5">
-        <v>5022</v>
-      </c>
-      <c r="B223" s="6" t="s">
-        <v>505</v>
+        <v>5021</v>
+      </c>
+      <c r="B223" s="7" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="224" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A224" s="5">
-        <v>5023</v>
+        <v>5022</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="225" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A225" s="5">
-        <v>5024</v>
-      </c>
-      <c r="B225" s="6" t="s">
-        <v>507</v>
+        <v>5023</v>
+      </c>
+      <c r="B225" s="7" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="226" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A226" s="5">
-        <v>5025</v>
+        <v>5024</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="227" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A227" s="5">
-        <v>5026</v>
-      </c>
-      <c r="B227" s="6" t="s">
-        <v>509</v>
+        <v>5025</v>
+      </c>
+      <c r="B227" s="7" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="228" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A228" s="5">
-        <v>5027</v>
+        <v>5026</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="229" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A229" s="5">
-        <v>5028</v>
-      </c>
-      <c r="B229" s="6" t="s">
-        <v>511</v>
+        <v>5027</v>
+      </c>
+      <c r="B229" s="7" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="230" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A230" s="5">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="231" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A231" s="5">
-        <v>5030</v>
-      </c>
-      <c r="B231" s="6" t="s">
-        <v>513</v>
+        <v>5029</v>
+      </c>
+      <c r="B231" s="7" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="232" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A232" s="5">
-        <v>5031</v>
+        <v>5030</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="233" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A233" s="5">
-        <v>5032</v>
-      </c>
-      <c r="B233" s="6" t="s">
-        <v>515</v>
+        <v>5031</v>
+      </c>
+      <c r="B233" s="7" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="234" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A234" s="5">
-        <v>5033</v>
+        <v>5032</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="235" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A235" s="5">
-        <v>5034</v>
-      </c>
-      <c r="B235" s="6" t="s">
-        <v>517</v>
+        <v>5033</v>
+      </c>
+      <c r="B235" s="7" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="236" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A236" s="5">
-        <v>5035</v>
+        <v>5034</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="237" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A237" s="5">
-        <v>5036</v>
-      </c>
-      <c r="B237" s="6" t="s">
-        <v>519</v>
+        <v>5035</v>
+      </c>
+      <c r="B237" s="7" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="238" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A238" s="5">
-        <v>5037</v>
+        <v>5036</v>
       </c>
       <c r="B238" s="6" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="239" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A239" s="5">
-        <v>5038</v>
-      </c>
-      <c r="B239" s="6" t="s">
-        <v>521</v>
+        <v>5037</v>
+      </c>
+      <c r="B239" s="7" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="240" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A240" s="5">
-        <v>5039</v>
+        <v>5038</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="241" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A241" s="5">
-        <v>5040</v>
-      </c>
-      <c r="B241" s="6" t="s">
-        <v>523</v>
+        <v>5039</v>
+      </c>
+      <c r="B241" s="7" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="242" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A242" s="5">
-        <v>5041</v>
+        <v>5040</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="243" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A243" s="5">
-        <v>5042</v>
-      </c>
-      <c r="B243" s="6" t="s">
-        <v>525</v>
+        <v>5041</v>
+      </c>
+      <c r="B243" s="7" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="244" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A244" s="5">
-        <v>5043</v>
+        <v>5042</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="245" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A245" s="5">
-        <v>5044</v>
-      </c>
-      <c r="B245" s="6" t="s">
-        <v>527</v>
+        <v>5043</v>
+      </c>
+      <c r="B245" s="7" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="246" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A246" s="5">
-        <v>5045</v>
+        <v>5044</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="247" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A247" s="5">
-        <v>5046</v>
-      </c>
-      <c r="B247" s="6" t="s">
-        <v>529</v>
+        <v>5045</v>
+      </c>
+      <c r="B247" s="7" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="248" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A248" s="5">
-        <v>5047</v>
+        <v>5046</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="249" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A249" s="5">
-        <v>5048</v>
-      </c>
-      <c r="B249" s="6" t="s">
-        <v>531</v>
+        <v>5047</v>
+      </c>
+      <c r="B249" s="7" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="250" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A250" s="5">
-        <v>5049</v>
+        <v>5048</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="251" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A251" s="5">
-        <v>5050</v>
-      </c>
-      <c r="B251" s="6" t="s">
-        <v>533</v>
+        <v>5049</v>
+      </c>
+      <c r="B251" s="7" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="252" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A252" s="5">
-        <v>5051</v>
+        <v>5050</v>
       </c>
       <c r="B252" s="6" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="253" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A253" s="5">
-        <v>5052</v>
-      </c>
-      <c r="B253" s="6" t="s">
-        <v>535</v>
+        <v>5051</v>
+      </c>
+      <c r="B253" s="7" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="254" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A254" s="5">
-        <v>5053</v>
+        <v>5052</v>
       </c>
       <c r="B254" s="6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="255" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A255" s="5">
-        <v>5054</v>
-      </c>
-      <c r="B255" s="6" t="s">
-        <v>537</v>
+        <v>5053</v>
+      </c>
+      <c r="B255" s="7" t="s">
+        <v>802</v>
       </c>
     </row>
     <row r="256" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A256" s="5">
-        <v>5055</v>
+        <v>5054</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="257" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A257" s="5">
-        <v>5056</v>
-      </c>
-      <c r="B257" s="6" t="s">
-        <v>539</v>
+        <v>5055</v>
+      </c>
+      <c r="B257" s="7" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="258" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A258" s="5">
-        <v>5057</v>
+        <v>5056</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="259" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A259" s="5">
-        <v>5058</v>
-      </c>
-      <c r="B259" s="6" t="s">
-        <v>541</v>
+        <v>5057</v>
+      </c>
+      <c r="B259" s="7" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="260" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A260" s="5">
-        <v>5059</v>
+        <v>5058</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="261" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A261" s="5">
-        <v>5060</v>
-      </c>
-      <c r="B261" s="6" t="s">
-        <v>543</v>
+        <v>5059</v>
+      </c>
+      <c r="B261" s="7" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="262" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A262" s="5">
-        <v>5061</v>
+        <v>5060</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="263" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A263" s="5">
-        <v>5062</v>
-      </c>
-      <c r="B263" s="6" t="s">
-        <v>545</v>
+        <v>5061</v>
+      </c>
+      <c r="B263" s="7" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="264" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A264" s="5">
-        <v>5063</v>
+        <v>5062</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="265" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A265" s="5">
-        <v>5064</v>
-      </c>
-      <c r="B265" s="6" t="s">
-        <v>547</v>
+        <v>5063</v>
+      </c>
+      <c r="B265" s="7" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="266" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A266" s="5">
-        <v>5065</v>
+        <v>5064</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="267" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A267" s="5">
-        <v>5066</v>
-      </c>
-      <c r="B267" s="6" t="s">
-        <v>549</v>
+        <v>5065</v>
+      </c>
+      <c r="B267" s="7" t="s">
+        <v>803</v>
       </c>
     </row>
     <row r="268" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A268" s="5">
-        <v>5067</v>
+        <v>5066</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>550</v>
+        <v>804</v>
       </c>
     </row>
     <row r="269" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A269" s="5">
-        <v>5068</v>
-      </c>
-      <c r="B269" s="6" t="s">
-        <v>551</v>
+        <v>5067</v>
+      </c>
+      <c r="B269" s="7" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="270" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A270" s="5">
-        <v>5069</v>
+        <v>5068</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>552</v>
+        <v>805</v>
       </c>
     </row>
     <row r="271" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A271" s="5">
-        <v>5070</v>
-      </c>
-      <c r="B271" s="6" t="s">
-        <v>553</v>
+        <v>5069</v>
+      </c>
+      <c r="B271" s="7" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="272" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A272" s="5">
-        <v>5071</v>
+        <v>5070</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="273" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A273" s="5">
-        <v>5072</v>
-      </c>
-      <c r="B273" s="6" t="s">
-        <v>555</v>
+        <v>5071</v>
+      </c>
+      <c r="B273" s="7" t="s">
+        <v>806</v>
       </c>
     </row>
     <row r="274" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A274" s="5">
-        <v>5073</v>
+        <v>5072</v>
       </c>
       <c r="B274" s="6" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
     </row>
     <row r="275" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A275" s="5">
-        <v>5074</v>
-      </c>
-      <c r="B275" s="6" t="s">
-        <v>557</v>
+        <v>5073</v>
+      </c>
+      <c r="B275" s="7" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="276" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A276" s="5">
-        <v>5075</v>
+        <v>5074</v>
       </c>
       <c r="B276" s="6" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
     </row>
     <row r="277" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A277" s="5">
-        <v>5076</v>
-      </c>
-      <c r="B277" s="6" t="s">
-        <v>559</v>
+        <v>5075</v>
+      </c>
+      <c r="B277" s="7" t="s">
+        <v>807</v>
       </c>
     </row>
     <row r="278" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A278" s="5">
-        <v>5077</v>
+        <v>5076</v>
       </c>
       <c r="B278" s="6" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
     </row>
     <row r="279" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A279" s="5">
-        <v>5078</v>
-      </c>
-      <c r="B279" s="6" t="s">
-        <v>561</v>
+        <v>5077</v>
+      </c>
+      <c r="B279" s="7" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="280" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A280" s="5">
-        <v>5079</v>
+        <v>5078</v>
       </c>
       <c r="B280" s="6" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="281" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A281" s="5">
-        <v>5080</v>
-      </c>
-      <c r="B281" s="6" t="s">
-        <v>563</v>
+        <v>5079</v>
+      </c>
+      <c r="B281" s="7" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="282" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A282" s="5">
-        <v>5081</v>
+        <v>5080</v>
       </c>
       <c r="B282" s="6" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
     </row>
     <row r="283" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A283" s="5">
-        <v>5082</v>
-      </c>
-      <c r="B283" s="6" t="s">
-        <v>565</v>
+        <v>5081</v>
+      </c>
+      <c r="B283" s="7" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="284" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A284" s="5">
-        <v>5083</v>
+        <v>5082</v>
       </c>
       <c r="B284" s="6" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
     </row>
     <row r="285" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A285" s="5">
-        <v>5084</v>
-      </c>
-      <c r="B285" s="6" t="s">
-        <v>567</v>
+        <v>5083</v>
+      </c>
+      <c r="B285" s="7" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="286" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A286" s="5">
-        <v>5085</v>
+        <v>5084</v>
       </c>
       <c r="B286" s="6" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
     </row>
     <row r="287" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A287" s="5">
-        <v>5086</v>
-      </c>
-      <c r="B287" s="6" t="s">
-        <v>569</v>
+        <v>5085</v>
+      </c>
+      <c r="B287" s="7" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="288" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A288" s="5">
-        <v>5087</v>
+        <v>5086</v>
       </c>
       <c r="B288" s="6" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
     </row>
     <row r="289" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A289" s="5">
-        <v>5088</v>
-      </c>
-      <c r="B289" s="6" t="s">
-        <v>571</v>
+        <v>5087</v>
+      </c>
+      <c r="B289" s="7" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="290" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A290" s="5">
-        <v>5089</v>
+        <v>5088</v>
       </c>
       <c r="B290" s="6" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
     </row>
     <row r="291" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A291" s="5">
-        <v>5090</v>
-      </c>
-      <c r="B291" s="6" t="s">
-        <v>573</v>
+        <v>5089</v>
+      </c>
+      <c r="B291" s="7" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="292" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A292" s="5">
-        <v>5091</v>
+        <v>5090</v>
       </c>
       <c r="B292" s="6" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
     </row>
     <row r="293" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A293" s="5">
-        <v>5092</v>
-      </c>
-      <c r="B293" s="6" t="s">
-        <v>575</v>
+        <v>5091</v>
+      </c>
+      <c r="B293" s="7" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="294" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A294" s="5">
-        <v>5093</v>
+        <v>5092</v>
       </c>
       <c r="B294" s="6" t="s">
-        <v>576</v>
+        <v>808</v>
       </c>
     </row>
     <row r="295" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A295" s="5">
-        <v>5094</v>
-      </c>
-      <c r="B295" s="6" t="s">
-        <v>577</v>
+        <v>5093</v>
+      </c>
+      <c r="B295" s="7" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="296" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A296" s="5">
-        <v>5095</v>
+        <v>5094</v>
       </c>
       <c r="B296" s="6" t="s">
-        <v>578</v>
+        <v>809</v>
       </c>
     </row>
     <row r="297" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A297" s="5">
-        <v>5096</v>
-      </c>
-      <c r="B297" s="6" t="s">
-        <v>579</v>
+        <v>5095</v>
+      </c>
+      <c r="B297" s="7" t="s">
+        <v>810</v>
       </c>
     </row>
     <row r="298" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A298" s="5">
-        <v>5097</v>
+        <v>5096</v>
       </c>
       <c r="B298" s="6" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
     </row>
     <row r="299" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A299" s="5">
-        <v>5098</v>
-      </c>
-      <c r="B299" s="6" t="s">
-        <v>581</v>
+        <v>5097</v>
+      </c>
+      <c r="B299" s="7" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="300" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A300" s="5">
-        <v>5099</v>
+        <v>5098</v>
       </c>
       <c r="B300" s="6" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
     </row>
     <row r="301" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A301" s="5">
-        <v>5100</v>
-      </c>
-      <c r="B301" s="6" t="s">
-        <v>583</v>
+        <v>5099</v>
+      </c>
+      <c r="B301" s="7" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="302" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A302" s="5">
-        <v>5101</v>
+        <v>5100</v>
       </c>
       <c r="B302" s="6" t="s">
-        <v>584</v>
+        <v>811</v>
       </c>
     </row>
     <row r="303" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A303" s="5">
-        <v>5102</v>
-      </c>
-      <c r="B303" s="6" t="s">
-        <v>585</v>
+        <v>5101</v>
+      </c>
+      <c r="B303" s="7" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="304" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A304" s="5">
-        <v>5103</v>
+        <v>5102</v>
       </c>
       <c r="B304" s="6" t="s">
-        <v>586</v>
+        <v>575</v>
       </c>
     </row>
     <row r="305" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A305" s="5">
-        <v>5104</v>
-      </c>
-      <c r="B305" s="6" t="s">
-        <v>587</v>
+        <v>5103</v>
+      </c>
+      <c r="B305" s="7" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="306" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A306" s="5">
-        <v>5105</v>
+        <v>5104</v>
       </c>
       <c r="B306" s="6" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
     </row>
     <row r="307" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A307" s="5">
-        <v>5106</v>
-      </c>
-      <c r="B307" s="6" t="s">
-        <v>589</v>
+        <v>5105</v>
+      </c>
+      <c r="B307" s="7" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="308" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A308" s="5">
-        <v>5107</v>
+        <v>5106</v>
       </c>
       <c r="B308" s="6" t="s">
-        <v>590</v>
+        <v>579</v>
       </c>
     </row>
     <row r="309" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A309" s="5">
-        <v>5108</v>
-      </c>
-      <c r="B309" s="6" t="s">
-        <v>591</v>
+        <v>5107</v>
+      </c>
+      <c r="B309" s="7" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="310" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A310" s="5">
-        <v>5109</v>
+        <v>5108</v>
       </c>
       <c r="B310" s="6" t="s">
-        <v>592</v>
+        <v>581</v>
       </c>
     </row>
     <row r="311" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A311" s="5">
-        <v>5110</v>
-      </c>
-      <c r="B311" s="6" t="s">
-        <v>593</v>
+        <v>5109</v>
+      </c>
+      <c r="B311" s="7" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="312" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A312" s="5">
-        <v>5111</v>
+        <v>5110</v>
       </c>
       <c r="B312" s="6" t="s">
-        <v>594</v>
+        <v>583</v>
       </c>
     </row>
     <row r="313" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A313" s="5">
-        <v>5112</v>
-      </c>
-      <c r="B313" s="6" t="s">
-        <v>595</v>
+        <v>5111</v>
+      </c>
+      <c r="B313" s="7" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="314" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A314" s="5">
-        <v>5113</v>
+        <v>5112</v>
       </c>
       <c r="B314" s="6" t="s">
-        <v>596</v>
+        <v>585</v>
       </c>
     </row>
     <row r="315" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A315" s="5">
-        <v>5114</v>
-      </c>
-      <c r="B315" s="6" t="s">
-        <v>597</v>
+        <v>5113</v>
+      </c>
+      <c r="B315" s="7" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="316" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A316" s="5">
-        <v>5115</v>
+        <v>5114</v>
       </c>
       <c r="B316" s="6" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
     </row>
     <row r="317" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A317" s="5">
-        <v>5116</v>
-      </c>
-      <c r="B317" s="6" t="s">
-        <v>599</v>
+        <v>5115</v>
+      </c>
+      <c r="B317" s="7" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="318" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A318" s="5">
-        <v>5117</v>
+        <v>5116</v>
       </c>
       <c r="B318" s="6" t="s">
-        <v>600</v>
+        <v>589</v>
       </c>
     </row>
     <row r="319" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A319" s="5">
-        <v>5118</v>
-      </c>
-      <c r="B319" s="6" t="s">
-        <v>601</v>
+        <v>5117</v>
+      </c>
+      <c r="B319" s="7" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="320" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A320" s="5">
-        <v>5119</v>
+        <v>5118</v>
       </c>
       <c r="B320" s="6" t="s">
-        <v>602</v>
+        <v>591</v>
       </c>
     </row>
     <row r="321" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A321" s="5">
-        <v>5120</v>
-      </c>
-      <c r="B321" s="6" t="s">
-        <v>603</v>
+        <v>5119</v>
+      </c>
+      <c r="B321" s="7" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="322" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A322" s="5">
-        <v>5121</v>
+        <v>5120</v>
       </c>
       <c r="B322" s="6" t="s">
-        <v>604</v>
+        <v>812</v>
       </c>
     </row>
     <row r="323" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A323" s="5">
-        <v>5122</v>
-      </c>
-      <c r="B323" s="6" t="s">
-        <v>605</v>
+        <v>5121</v>
+      </c>
+      <c r="B323" s="7" t="s">
+        <v>813</v>
       </c>
     </row>
     <row r="324" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A324" s="5">
-        <v>5123</v>
+        <v>5122</v>
       </c>
       <c r="B324" s="6" t="s">
-        <v>606</v>
+        <v>814</v>
       </c>
     </row>
     <row r="325" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A325" s="5">
-        <v>5124</v>
-      </c>
-      <c r="B325" s="6" t="s">
-        <v>607</v>
+        <v>5123</v>
+      </c>
+      <c r="B325" s="7" t="s">
+        <v>815</v>
       </c>
     </row>
     <row r="326" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A326" s="5">
-        <v>5125</v>
+        <v>5124</v>
       </c>
       <c r="B326" s="6" t="s">
-        <v>608</v>
+        <v>816</v>
       </c>
     </row>
     <row r="327" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A327" s="5">
-        <v>5126</v>
-      </c>
-      <c r="B327" s="6" t="s">
-        <v>609</v>
+        <v>5125</v>
+      </c>
+      <c r="B327" s="7" t="s">
+        <v>817</v>
       </c>
     </row>
     <row r="328" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A328" s="5">
-        <v>5127</v>
+        <v>5126</v>
       </c>
       <c r="B328" s="6" t="s">
-        <v>610</v>
+        <v>818</v>
       </c>
     </row>
     <row r="329" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A329" s="5">
-        <v>5128</v>
-      </c>
-      <c r="B329" s="6" t="s">
-        <v>611</v>
+        <v>5127</v>
+      </c>
+      <c r="B329" s="7" t="s">
+        <v>819</v>
       </c>
     </row>
     <row r="330" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A330" s="5">
-        <v>5129</v>
+        <v>5128</v>
       </c>
       <c r="B330" s="6" t="s">
-        <v>612</v>
+        <v>820</v>
       </c>
     </row>
     <row r="331" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A331" s="5">
-        <v>5130</v>
-      </c>
-      <c r="B331" s="6" t="s">
-        <v>613</v>
+        <v>5129</v>
+      </c>
+      <c r="B331" s="7" t="s">
+        <v>821</v>
       </c>
     </row>
     <row r="332" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A332" s="5">
-        <v>5131</v>
+        <v>5130</v>
       </c>
       <c r="B332" s="6" t="s">
-        <v>614</v>
+        <v>822</v>
       </c>
     </row>
     <row r="333" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A333" s="5">
-        <v>5132</v>
-      </c>
-      <c r="B333" s="6" t="s">
-        <v>615</v>
+        <v>5131</v>
+      </c>
+      <c r="B333" s="7" t="s">
+        <v>823</v>
       </c>
     </row>
     <row r="334" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A334" s="5">
-        <v>5133</v>
+        <v>5132</v>
       </c>
       <c r="B334" s="6" t="s">
-        <v>616</v>
+        <v>824</v>
       </c>
     </row>
     <row r="335" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A335" s="5">
-        <v>5134</v>
-      </c>
-      <c r="B335" s="6" t="s">
-        <v>617</v>
+        <v>5133</v>
+      </c>
+      <c r="B335" s="7" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="336" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A336" s="5">
-        <v>5135</v>
+        <v>5134</v>
       </c>
       <c r="B336" s="6" t="s">
-        <v>618</v>
+        <v>594</v>
       </c>
     </row>
     <row r="337" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A337" s="5">
-        <v>5136</v>
-      </c>
-      <c r="B337" s="6" t="s">
-        <v>619</v>
+        <v>5135</v>
+      </c>
+      <c r="B337" s="7" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="338" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A338" s="5">
-        <v>5137</v>
+        <v>5136</v>
       </c>
       <c r="B338" s="6" t="s">
-        <v>620</v>
+        <v>596</v>
       </c>
     </row>
     <row r="339" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A339" s="5">
-        <v>5138</v>
-      </c>
-      <c r="B339" s="6" t="s">
-        <v>621</v>
+        <v>5137</v>
+      </c>
+      <c r="B339" s="7" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="340" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A340" s="5">
-        <v>5139</v>
+        <v>5138</v>
       </c>
       <c r="B340" s="6" t="s">
-        <v>622</v>
+        <v>598</v>
       </c>
     </row>
     <row r="341" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A341" s="5">
-        <v>5140</v>
-      </c>
-      <c r="B341" s="6" t="s">
-        <v>623</v>
+        <v>5139</v>
+      </c>
+      <c r="B341" s="7" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="342" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A342" s="5">
-        <v>5141</v>
+        <v>5140</v>
       </c>
       <c r="B342" s="6" t="s">
-        <v>624</v>
+        <v>600</v>
       </c>
     </row>
     <row r="343" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A343" s="5">
-        <v>5142</v>
-      </c>
-      <c r="B343" s="6" t="s">
-        <v>625</v>
+        <v>5141</v>
+      </c>
+      <c r="B343" s="7" t="s">
+        <v>825</v>
       </c>
     </row>
     <row r="344" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A344" s="5">
-        <v>5143</v>
+        <v>5142</v>
       </c>
       <c r="B344" s="6" t="s">
-        <v>626</v>
+        <v>826</v>
       </c>
     </row>
     <row r="345" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A345" s="5">
-        <v>5144</v>
-      </c>
-      <c r="B345" s="6" t="s">
-        <v>627</v>
+        <v>5143</v>
+      </c>
+      <c r="B345" s="7" t="s">
+        <v>827</v>
       </c>
     </row>
     <row r="346" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A346" s="5">
-        <v>5145</v>
+        <v>5144</v>
       </c>
       <c r="B346" s="6" t="s">
-        <v>628</v>
+        <v>601</v>
       </c>
     </row>
     <row r="347" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A347" s="5">
-        <v>5146</v>
-      </c>
-      <c r="B347" s="6" t="s">
-        <v>629</v>
+        <v>5145</v>
+      </c>
+      <c r="B347" s="7" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="348" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A348" s="5">
-        <v>5147</v>
+        <v>5146</v>
       </c>
       <c r="B348" s="6" t="s">
-        <v>630</v>
+        <v>603</v>
       </c>
     </row>
     <row r="349" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A349" s="5">
-        <v>5148</v>
-      </c>
-      <c r="B349" s="6" t="s">
-        <v>631</v>
+        <v>5147</v>
+      </c>
+      <c r="B349" s="7" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="350" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A350" s="5">
-        <v>5149</v>
+        <v>5148</v>
       </c>
       <c r="B350" s="6" t="s">
-        <v>632</v>
+        <v>605</v>
       </c>
     </row>
     <row r="351" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A351" s="5">
-        <v>5150</v>
-      </c>
-      <c r="B351" s="6" t="s">
-        <v>633</v>
+        <v>5149</v>
+      </c>
+      <c r="B351" s="7" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="352" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A352" s="5">
-        <v>5151</v>
+        <v>5150</v>
       </c>
       <c r="B352" s="6" t="s">
-        <v>634</v>
+        <v>828</v>
       </c>
     </row>
     <row r="353" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A353" s="5">
-        <v>5152</v>
-      </c>
-      <c r="B353" s="6" t="s">
-        <v>635</v>
+        <v>5151</v>
+      </c>
+      <c r="B353" s="7" t="s">
+        <v>829</v>
       </c>
     </row>
     <row r="354" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A354" s="5">
-        <v>5153</v>
+        <v>5152</v>
       </c>
       <c r="B354" s="6" t="s">
-        <v>636</v>
+        <v>830</v>
       </c>
     </row>
     <row r="355" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A355" s="5">
-        <v>5154</v>
-      </c>
-      <c r="B355" s="6" t="s">
-        <v>637</v>
+        <v>5153</v>
+      </c>
+      <c r="B355" s="7" t="s">
+        <v>831</v>
       </c>
     </row>
     <row r="356" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A356" s="5">
-        <v>5155</v>
+        <v>5154</v>
       </c>
       <c r="B356" s="6" t="s">
-        <v>638</v>
+        <v>607</v>
       </c>
     </row>
     <row r="357" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A357" s="5">
-        <v>5156</v>
-      </c>
-      <c r="B357" s="6" t="s">
-        <v>639</v>
+        <v>5155</v>
+      </c>
+      <c r="B357" s="7" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="358" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A358" s="5">
-        <v>5157</v>
+        <v>5156</v>
       </c>
       <c r="B358" s="6" t="s">
-        <v>640</v>
+        <v>609</v>
       </c>
     </row>
     <row r="359" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A359" s="5">
-        <v>5158</v>
-      </c>
-      <c r="B359" s="6" t="s">
-        <v>641</v>
+        <v>5157</v>
+      </c>
+      <c r="B359" s="7" t="s">
+        <v>610</v>
       </c>
     </row>
     <row r="360" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A360" s="5">
-        <v>5159</v>
+        <v>5158</v>
       </c>
       <c r="B360" s="6" t="s">
-        <v>642</v>
+        <v>832</v>
       </c>
     </row>
     <row r="361" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A361" s="5">
-        <v>5160</v>
-      </c>
-      <c r="B361" s="6" t="s">
-        <v>643</v>
+        <v>5159</v>
+      </c>
+      <c r="B361" s="7" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="362" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A362" s="5">
-        <v>5161</v>
+        <v>5160</v>
       </c>
       <c r="B362" s="6" t="s">
-        <v>644</v>
+        <v>833</v>
       </c>
     </row>
     <row r="363" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A363" s="5">
-        <v>5162</v>
-      </c>
-      <c r="B363" s="6" t="s">
-        <v>645</v>
+        <v>5161</v>
+      </c>
+      <c r="B363" s="7" t="s">
+        <v>834</v>
       </c>
     </row>
     <row r="364" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A364" s="5">
-        <v>5163</v>
+        <v>5162</v>
       </c>
       <c r="B364" s="6" t="s">
-        <v>646</v>
+        <v>835</v>
       </c>
     </row>
     <row r="365" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A365" s="5">
-        <v>5164</v>
-      </c>
-      <c r="B365" s="6" t="s">
-        <v>647</v>
+        <v>5163</v>
+      </c>
+      <c r="B365" s="7" t="s">
+        <v>836</v>
       </c>
     </row>
     <row r="366" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A366" s="5">
-        <v>5165</v>
+        <v>5164</v>
       </c>
       <c r="B366" s="6" t="s">
-        <v>648</v>
+        <v>837</v>
       </c>
     </row>
     <row r="367" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A367" s="5">
-        <v>5166</v>
-      </c>
-      <c r="B367" s="6" t="s">
-        <v>649</v>
+        <v>5165</v>
+      </c>
+      <c r="B367" s="7" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="368" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A368" s="5">
-        <v>5167</v>
+        <v>5166</v>
       </c>
       <c r="B368" s="6" t="s">
-        <v>650</v>
+        <v>839</v>
       </c>
     </row>
     <row r="369" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A369" s="5">
-        <v>5168</v>
-      </c>
-      <c r="B369" s="6" t="s">
-        <v>651</v>
+        <v>5167</v>
+      </c>
+      <c r="B369" s="7" t="s">
+        <v>840</v>
       </c>
     </row>
     <row r="370" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A370" s="5">
-        <v>5169</v>
+        <v>5168</v>
       </c>
       <c r="B370" s="6" t="s">
-        <v>652</v>
+        <v>841</v>
       </c>
     </row>
     <row r="371" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A371" s="5">
-        <v>5170</v>
-      </c>
-      <c r="B371" s="6" t="s">
-        <v>653</v>
+        <v>5169</v>
+      </c>
+      <c r="B371" s="7" t="s">
+        <v>842</v>
       </c>
     </row>
     <row r="372" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A372" s="5">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="B372" s="6" t="s">
-        <v>654</v>
+        <v>843</v>
       </c>
     </row>
     <row r="373" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A373" s="5">
-        <v>5172</v>
-      </c>
-      <c r="B373" s="6" t="s">
-        <v>655</v>
+        <v>5171</v>
+      </c>
+      <c r="B373" s="7" t="s">
+        <v>844</v>
       </c>
     </row>
     <row r="374" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A374" s="5">
-        <v>5173</v>
+        <v>5172</v>
       </c>
       <c r="B374" s="6" t="s">
-        <v>656</v>
+        <v>845</v>
       </c>
     </row>
     <row r="375" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A375" s="5">
-        <v>5174</v>
-      </c>
-      <c r="B375" s="6" t="s">
-        <v>657</v>
+        <v>5173</v>
+      </c>
+      <c r="B375" s="7" t="s">
+        <v>846</v>
       </c>
     </row>
     <row r="376" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A376" s="5">
-        <v>5175</v>
+        <v>5174</v>
       </c>
       <c r="B376" s="6" t="s">
-        <v>658</v>
+        <v>847</v>
       </c>
     </row>
     <row r="377" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A377" s="5">
-        <v>5176</v>
-      </c>
-      <c r="B377" s="6" t="s">
-        <v>659</v>
+        <v>5175</v>
+      </c>
+      <c r="B377" s="7" t="s">
+        <v>848</v>
       </c>
     </row>
     <row r="378" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A378" s="5">
-        <v>5177</v>
+        <v>5176</v>
       </c>
       <c r="B378" s="6" t="s">
-        <v>660</v>
+        <v>849</v>
       </c>
     </row>
     <row r="379" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A379" s="5">
-        <v>5178</v>
-      </c>
-      <c r="B379" s="6" t="s">
-        <v>661</v>
+        <v>5177</v>
+      </c>
+      <c r="B379" s="7" t="s">
+        <v>850</v>
       </c>
     </row>
     <row r="380" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A380" s="5">
-        <v>5179</v>
+        <v>5178</v>
       </c>
       <c r="B380" s="6" t="s">
-        <v>662</v>
+        <v>851</v>
       </c>
     </row>
     <row r="381" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A381" s="5">
-        <v>5180</v>
-      </c>
-      <c r="B381" s="6" t="s">
-        <v>663</v>
+        <v>5179</v>
+      </c>
+      <c r="B381" s="7" t="s">
+        <v>852</v>
       </c>
     </row>
     <row r="382" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A382" s="5">
-        <v>5181</v>
+        <v>5180</v>
       </c>
       <c r="B382" s="6" t="s">
-        <v>664</v>
+        <v>853</v>
       </c>
     </row>
     <row r="383" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A383" s="5">
-        <v>5182</v>
-      </c>
-      <c r="B383" s="6" t="s">
-        <v>665</v>
+        <v>5181</v>
+      </c>
+      <c r="B383" s="7" t="s">
+        <v>854</v>
       </c>
     </row>
     <row r="384" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A384" s="5">
-        <v>5183</v>
+        <v>5182</v>
       </c>
       <c r="B384" s="6" t="s">
-        <v>666</v>
+        <v>855</v>
       </c>
     </row>
     <row r="385" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A385" s="5">
-        <v>5184</v>
-      </c>
-      <c r="B385" s="6" t="s">
-        <v>667</v>
+        <v>5183</v>
+      </c>
+      <c r="B385" s="7" t="s">
+        <v>856</v>
       </c>
     </row>
     <row r="386" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A386" s="5">
-        <v>5185</v>
+        <v>5184</v>
       </c>
       <c r="B386" s="6" t="s">
-        <v>668</v>
+        <v>857</v>
       </c>
     </row>
     <row r="387" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A387" s="5">
-        <v>5186</v>
-      </c>
-      <c r="B387" s="6" t="s">
-        <v>669</v>
+        <v>5185</v>
+      </c>
+      <c r="B387" s="7" t="s">
+        <v>858</v>
       </c>
     </row>
     <row r="388" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A388" s="5">
-        <v>5187</v>
+        <v>5186</v>
       </c>
       <c r="B388" s="6" t="s">
-        <v>670</v>
+        <v>859</v>
       </c>
     </row>
     <row r="389" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A389" s="5">
-        <v>5188</v>
-      </c>
-      <c r="B389" s="6" t="s">
-        <v>671</v>
+        <v>5187</v>
+      </c>
+      <c r="B389" s="7" t="s">
+        <v>860</v>
       </c>
     </row>
     <row r="390" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A390" s="5">
-        <v>5189</v>
+        <v>5188</v>
       </c>
       <c r="B390" s="6" t="s">
-        <v>672</v>
+        <v>861</v>
       </c>
     </row>
     <row r="391" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A391" s="5">
-        <v>5190</v>
-      </c>
-      <c r="B391" s="6" t="s">
-        <v>673</v>
+        <v>5189</v>
+      </c>
+      <c r="B391" s="7" t="s">
+        <v>612</v>
       </c>
     </row>
     <row r="392" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A392" s="5">
-        <v>5191</v>
+        <v>5190</v>
       </c>
       <c r="B392" s="6" t="s">
-        <v>674</v>
+        <v>613</v>
       </c>
     </row>
     <row r="393" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A393" s="5">
-        <v>5192</v>
-      </c>
-      <c r="B393" s="6" t="s">
-        <v>675</v>
+        <v>5191</v>
+      </c>
+      <c r="B393" s="7" t="s">
+        <v>614</v>
       </c>
     </row>
     <row r="394" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A394" s="5">
-        <v>5193</v>
+        <v>5192</v>
       </c>
       <c r="B394" s="6" t="s">
-        <v>676</v>
+        <v>615</v>
       </c>
     </row>
     <row r="395" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A395" s="5">
-        <v>5194</v>
-      </c>
-      <c r="B395" s="6" t="s">
-        <v>677</v>
+        <v>5193</v>
+      </c>
+      <c r="B395" s="7" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="396" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A396" s="5">
-        <v>5195</v>
+        <v>5194</v>
       </c>
       <c r="B396" s="6" t="s">
-        <v>678</v>
+        <v>617</v>
       </c>
     </row>
     <row r="397" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A397" s="5">
-        <v>5196</v>
-      </c>
-      <c r="B397" s="6" t="s">
-        <v>679</v>
+        <v>5195</v>
+      </c>
+      <c r="B397" s="7" t="s">
+        <v>618</v>
       </c>
     </row>
     <row r="398" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A398" s="5">
-        <v>5197</v>
+        <v>5196</v>
       </c>
       <c r="B398" s="6" t="s">
-        <v>680</v>
+        <v>619</v>
       </c>
     </row>
     <row r="399" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A399" s="5">
-        <v>5198</v>
-      </c>
-      <c r="B399" s="6" t="s">
-        <v>681</v>
+        <v>5197</v>
+      </c>
+      <c r="B399" s="7" t="s">
+        <v>620</v>
       </c>
     </row>
     <row r="400" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A400" s="5">
-        <v>5199</v>
+        <v>5198</v>
       </c>
       <c r="B400" s="6" t="s">
-        <v>682</v>
+        <v>621</v>
       </c>
     </row>
     <row r="401" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A401" s="5">
-        <v>5200</v>
-      </c>
-      <c r="B401" s="6" t="s">
-        <v>683</v>
+        <v>5199</v>
+      </c>
+      <c r="B401" s="7" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="402" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A402" s="5">
-        <v>5201</v>
+        <v>5200</v>
       </c>
       <c r="B402" s="6" t="s">
-        <v>684</v>
+        <v>623</v>
       </c>
     </row>
     <row r="403" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A403" s="5">
-        <v>5202</v>
-      </c>
-      <c r="B403" s="6" t="s">
-        <v>685</v>
+        <v>5201</v>
+      </c>
+      <c r="B403" s="7" t="s">
+        <v>624</v>
       </c>
     </row>
     <row r="404" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A404" s="5">
-        <v>5203</v>
+        <v>5202</v>
       </c>
       <c r="B404" s="6" t="s">
-        <v>686</v>
+        <v>625</v>
       </c>
     </row>
     <row r="405" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A405" s="5">
-        <v>5204</v>
-      </c>
-      <c r="B405" s="6" t="s">
-        <v>687</v>
+        <v>5203</v>
+      </c>
+      <c r="B405" s="7" t="s">
+        <v>626</v>
       </c>
     </row>
     <row r="406" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A406" s="5">
-        <v>5205</v>
+        <v>5204</v>
       </c>
       <c r="B406" s="6" t="s">
-        <v>688</v>
+        <v>627</v>
       </c>
     </row>
     <row r="407" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A407" s="5">
-        <v>5206</v>
-      </c>
-      <c r="B407" s="6" t="s">
-        <v>689</v>
+        <v>5205</v>
+      </c>
+      <c r="B407" s="7" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="408" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A408" s="5">
-        <v>5207</v>
+        <v>5206</v>
       </c>
       <c r="B408" s="6" t="s">
-        <v>690</v>
+        <v>629</v>
       </c>
     </row>
     <row r="409" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A409" s="5">
-        <v>5208</v>
-      </c>
-      <c r="B409" s="6" t="s">
-        <v>691</v>
+        <v>5207</v>
+      </c>
+      <c r="B409" s="7" t="s">
+        <v>630</v>
       </c>
     </row>
     <row r="410" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A410" s="5">
-        <v>5209</v>
+        <v>5208</v>
       </c>
       <c r="B410" s="6" t="s">
-        <v>692</v>
+        <v>631</v>
       </c>
     </row>
     <row r="411" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A411" s="5">
-        <v>5210</v>
-      </c>
-      <c r="B411" s="6" t="s">
-        <v>693</v>
+        <v>5209</v>
+      </c>
+      <c r="B411" s="7" t="s">
+        <v>632</v>
       </c>
     </row>
     <row r="412" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A412" s="5">
-        <v>5211</v>
+        <v>5210</v>
       </c>
       <c r="B412" s="6" t="s">
-        <v>694</v>
+        <v>633</v>
       </c>
     </row>
     <row r="413" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A413" s="5">
-        <v>5212</v>
-      </c>
-      <c r="B413" s="6" t="s">
-        <v>695</v>
+        <v>5211</v>
+      </c>
+      <c r="B413" s="7" t="s">
+        <v>862</v>
       </c>
     </row>
     <row r="414" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A414" s="5">
-        <v>5213</v>
+        <v>5212</v>
       </c>
       <c r="B414" s="6" t="s">
-        <v>696</v>
+        <v>634</v>
       </c>
     </row>
     <row r="415" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A415" s="5">
-        <v>5214</v>
-      </c>
-      <c r="B415" s="6" t="s">
-        <v>697</v>
+        <v>5213</v>
+      </c>
+      <c r="B415" s="7" t="s">
+        <v>863</v>
       </c>
     </row>
     <row r="416" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A416" s="5">
-        <v>5215</v>
+        <v>5214</v>
       </c>
       <c r="B416" s="6" t="s">
-        <v>698</v>
+        <v>864</v>
       </c>
     </row>
     <row r="417" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A417" s="5">
-        <v>5216</v>
-      </c>
-      <c r="B417" s="6" t="s">
-        <v>699</v>
+        <v>5215</v>
+      </c>
+      <c r="B417" s="7" t="s">
+        <v>865</v>
       </c>
     </row>
     <row r="418" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A418" s="5">
-        <v>5217</v>
+        <v>5216</v>
       </c>
       <c r="B418" s="6" t="s">
-        <v>700</v>
+        <v>866</v>
       </c>
     </row>
     <row r="419" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A419" s="5">
-        <v>5218</v>
-      </c>
-      <c r="B419" s="6" t="s">
-        <v>701</v>
+        <v>5217</v>
+      </c>
+      <c r="B419" s="7" t="s">
+        <v>867</v>
       </c>
     </row>
     <row r="420" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A420" s="5">
-        <v>5219</v>
+        <v>5218</v>
       </c>
       <c r="B420" s="6" t="s">
-        <v>702</v>
+        <v>868</v>
       </c>
     </row>
     <row r="421" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A421" s="5">
-        <v>5220</v>
-      </c>
-      <c r="B421" s="6" t="s">
-        <v>703</v>
+        <v>5219</v>
+      </c>
+      <c r="B421" s="7" t="s">
+        <v>869</v>
       </c>
     </row>
     <row r="422" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A422" s="5">
-        <v>5221</v>
+        <v>5220</v>
       </c>
       <c r="B422" s="6" t="s">
-        <v>704</v>
+        <v>870</v>
       </c>
     </row>
     <row r="423" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A423" s="5">
-        <v>5222</v>
-      </c>
-      <c r="B423" s="6" t="s">
-        <v>705</v>
+        <v>5221</v>
+      </c>
+      <c r="B423" s="7" t="s">
+        <v>871</v>
       </c>
     </row>
     <row r="424" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A424" s="5">
-        <v>5223</v>
+        <v>5222</v>
       </c>
       <c r="B424" s="6" t="s">
-        <v>706</v>
+        <v>872</v>
       </c>
     </row>
     <row r="425" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A425" s="5">
-        <v>5224</v>
-      </c>
-      <c r="B425" s="6" t="s">
-        <v>707</v>
+        <v>5223</v>
+      </c>
+      <c r="B425" s="7" t="s">
+        <v>873</v>
       </c>
     </row>
     <row r="426" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A426" s="5">
-        <v>5225</v>
+        <v>5224</v>
       </c>
       <c r="B426" s="6" t="s">
-        <v>708</v>
+        <v>874</v>
       </c>
     </row>
     <row r="427" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A427" s="5">
-        <v>5226</v>
-      </c>
-      <c r="B427" s="6" t="s">
-        <v>709</v>
+        <v>5225</v>
+      </c>
+      <c r="B427" s="7" t="s">
+        <v>875</v>
       </c>
     </row>
     <row r="428" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A428" s="5">
-        <v>5227</v>
+        <v>5226</v>
       </c>
       <c r="B428" s="6" t="s">
-        <v>710</v>
+        <v>876</v>
       </c>
     </row>
     <row r="429" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A429" s="5">
-        <v>5228</v>
-      </c>
-      <c r="B429" s="6" t="s">
-        <v>711</v>
+        <v>5227</v>
+      </c>
+      <c r="B429" s="7" t="s">
+        <v>877</v>
       </c>
     </row>
     <row r="430" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A430" s="5">
-        <v>5229</v>
+        <v>5228</v>
       </c>
       <c r="B430" s="6" t="s">
-        <v>712</v>
+        <v>878</v>
       </c>
     </row>
     <row r="431" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A431" s="5">
-        <v>5230</v>
-      </c>
-      <c r="B431" s="6" t="s">
-        <v>713</v>
+        <v>5229</v>
+      </c>
+      <c r="B431" s="7" t="s">
+        <v>879</v>
       </c>
     </row>
     <row r="432" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A432" s="5">
-        <v>5231</v>
+        <v>5230</v>
       </c>
       <c r="B432" s="6" t="s">
-        <v>714</v>
+        <v>880</v>
       </c>
     </row>
     <row r="433" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A433" s="5">
-        <v>5232</v>
-      </c>
-      <c r="B433" s="6" t="s">
-        <v>715</v>
+        <v>5231</v>
+      </c>
+      <c r="B433" s="7" t="s">
+        <v>881</v>
       </c>
     </row>
     <row r="434" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A434" s="5">
-        <v>5233</v>
+        <v>5232</v>
       </c>
       <c r="B434" s="6" t="s">
-        <v>716</v>
+        <v>882</v>
       </c>
     </row>
     <row r="435" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A435" s="5">
-        <v>5234</v>
-      </c>
-      <c r="B435" s="6" t="s">
-        <v>717</v>
+        <v>5233</v>
+      </c>
+      <c r="B435" s="7" t="s">
+        <v>635</v>
       </c>
     </row>
     <row r="436" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A436" s="5">
-        <v>5235</v>
+        <v>5234</v>
       </c>
       <c r="B436" s="6" t="s">
-        <v>718</v>
+        <v>636</v>
       </c>
     </row>
     <row r="437" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A437" s="5">
-        <v>5236</v>
-      </c>
-      <c r="B437" s="6" t="s">
-        <v>719</v>
+        <v>5235</v>
+      </c>
+      <c r="B437" s="7" t="s">
+        <v>637</v>
       </c>
     </row>
     <row r="438" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A438" s="5">
-        <v>5237</v>
+        <v>5236</v>
       </c>
       <c r="B438" s="6" t="s">
-        <v>720</v>
+        <v>638</v>
       </c>
     </row>
     <row r="439" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A439" s="5">
-        <v>5238</v>
-      </c>
-      <c r="B439" s="6" t="s">
-        <v>721</v>
+        <v>5237</v>
+      </c>
+      <c r="B439" s="7" t="s">
+        <v>639</v>
       </c>
     </row>
     <row r="440" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A440" s="5">
-        <v>5239</v>
+        <v>5238</v>
       </c>
       <c r="B440" s="6" t="s">
-        <v>722</v>
+        <v>640</v>
       </c>
     </row>
     <row r="441" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A441" s="5">
-        <v>5240</v>
-      </c>
-      <c r="B441" s="6" t="s">
-        <v>723</v>
+        <v>5239</v>
+      </c>
+      <c r="B441" s="7" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="442" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A442" s="5">
-        <v>5241</v>
+        <v>5240</v>
       </c>
       <c r="B442" s="6" t="s">
-        <v>724</v>
+        <v>642</v>
       </c>
     </row>
     <row r="443" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A443" s="5">
-        <v>5242</v>
-      </c>
-      <c r="B443" s="6" t="s">
-        <v>725</v>
+        <v>5241</v>
+      </c>
+      <c r="B443" s="7" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="444" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A444" s="5">
-        <v>5243</v>
+        <v>5242</v>
       </c>
       <c r="B444" s="6" t="s">
-        <v>726</v>
+        <v>644</v>
       </c>
     </row>
     <row r="445" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A445" s="5">
-        <v>5244</v>
-      </c>
-      <c r="B445" s="6" t="s">
-        <v>727</v>
+        <v>5243</v>
+      </c>
+      <c r="B445" s="7" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="446" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A446" s="5">
-        <v>5245</v>
+        <v>5244</v>
       </c>
       <c r="B446" s="6" t="s">
-        <v>728</v>
+        <v>646</v>
       </c>
     </row>
     <row r="447" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A447" s="5">
-        <v>5246</v>
-      </c>
-      <c r="B447" s="6" t="s">
-        <v>729</v>
+        <v>5245</v>
+      </c>
+      <c r="B447" s="7" t="s">
+        <v>883</v>
       </c>
     </row>
     <row r="448" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A448" s="5">
-        <v>5247</v>
+        <v>5246</v>
       </c>
       <c r="B448" s="6" t="s">
-        <v>730</v>
+        <v>647</v>
       </c>
     </row>
     <row r="449" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A449" s="5">
-        <v>5248</v>
-      </c>
-      <c r="B449" s="6" t="s">
-        <v>731</v>
+        <v>5247</v>
+      </c>
+      <c r="B449" s="7" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="450" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A450" s="5">
-        <v>5249</v>
+        <v>5248</v>
       </c>
       <c r="B450" s="6" t="s">
-        <v>732</v>
+        <v>649</v>
       </c>
     </row>
     <row r="451" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A451" s="5">
-        <v>5250</v>
-      </c>
-      <c r="B451" s="6" t="s">
-        <v>733</v>
+        <v>5249</v>
+      </c>
+      <c r="B451" s="7" t="s">
+        <v>650</v>
       </c>
     </row>
     <row r="452" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A452" s="5">
-        <v>5251</v>
+        <v>5250</v>
       </c>
       <c r="B452" s="6" t="s">
-        <v>734</v>
+        <v>651</v>
       </c>
     </row>
     <row r="453" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A453" s="5">
-        <v>5252</v>
-      </c>
-      <c r="B453" s="6" t="s">
-        <v>735</v>
+        <v>5251</v>
+      </c>
+      <c r="B453" s="7" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="454" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A454" s="5">
-        <v>5253</v>
+        <v>5252</v>
       </c>
       <c r="B454" s="6" t="s">
-        <v>736</v>
+        <v>653</v>
       </c>
     </row>
     <row r="455" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A455" s="5">
-        <v>5254</v>
-      </c>
-      <c r="B455" s="6" t="s">
-        <v>737</v>
+        <v>5253</v>
+      </c>
+      <c r="B455" s="7" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="456" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A456" s="5">
-        <v>5255</v>
+        <v>5254</v>
       </c>
       <c r="B456" s="6" t="s">
-        <v>738</v>
+        <v>655</v>
       </c>
     </row>
     <row r="457" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A457" s="5">
-        <v>5256</v>
-      </c>
-      <c r="B457" s="6" t="s">
-        <v>739</v>
+        <v>5255</v>
+      </c>
+      <c r="B457" s="7" t="s">
+        <v>656</v>
       </c>
     </row>
     <row r="458" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A458" s="5">
-        <v>5257</v>
+        <v>5256</v>
       </c>
       <c r="B458" s="6" t="s">
-        <v>740</v>
+        <v>657</v>
       </c>
     </row>
     <row r="459" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A459" s="5">
-        <v>5258</v>
-      </c>
-      <c r="B459" s="6" t="s">
-        <v>741</v>
+        <v>5257</v>
+      </c>
+      <c r="B459" s="7" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="460" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A460" s="5">
-        <v>5259</v>
+        <v>5258</v>
       </c>
       <c r="B460" s="6" t="s">
-        <v>742</v>
+        <v>659</v>
       </c>
     </row>
     <row r="461" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A461" s="5">
-        <v>5260</v>
-      </c>
-      <c r="B461" s="6" t="s">
-        <v>743</v>
+        <v>5259</v>
+      </c>
+      <c r="B461" s="7" t="s">
+        <v>660</v>
       </c>
     </row>
     <row r="462" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A462" s="5">
-        <v>5261</v>
+        <v>5260</v>
       </c>
       <c r="B462" s="6" t="s">
-        <v>744</v>
+        <v>661</v>
       </c>
     </row>
     <row r="463" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A463" s="5">
-        <v>5262</v>
-      </c>
-      <c r="B463" s="6" t="s">
-        <v>745</v>
+        <v>5261</v>
+      </c>
+      <c r="B463" s="7" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="464" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A464" s="5">
-        <v>5263</v>
+        <v>5262</v>
       </c>
       <c r="B464" s="6" t="s">
-        <v>746</v>
+        <v>663</v>
       </c>
     </row>
     <row r="465" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A465" s="5">
-        <v>5264</v>
-      </c>
-      <c r="B465" s="6" t="s">
-        <v>747</v>
+        <v>5263</v>
+      </c>
+      <c r="B465" s="7" t="s">
+        <v>664</v>
       </c>
     </row>
     <row r="466" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A466" s="5">
-        <v>5265</v>
+        <v>5264</v>
       </c>
       <c r="B466" s="6" t="s">
-        <v>748</v>
+        <v>665</v>
       </c>
     </row>
     <row r="467" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A467" s="5">
-        <v>5266</v>
-      </c>
-      <c r="B467" s="6" t="s">
-        <v>749</v>
+        <v>5265</v>
+      </c>
+      <c r="B467" s="7" t="s">
+        <v>666</v>
       </c>
     </row>
     <row r="468" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A468" s="5">
-        <v>5267</v>
+        <v>5266</v>
       </c>
       <c r="B468" s="6" t="s">
-        <v>750</v>
+        <v>667</v>
       </c>
     </row>
     <row r="469" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A469" s="5">
-        <v>5268</v>
-      </c>
-      <c r="B469" s="6" t="s">
-        <v>751</v>
+        <v>5267</v>
+      </c>
+      <c r="B469" s="7" t="s">
+        <v>668</v>
       </c>
     </row>
     <row r="470" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A470" s="5">
-        <v>5269</v>
+        <v>5268</v>
       </c>
       <c r="B470" s="6" t="s">
-        <v>752</v>
+        <v>669</v>
       </c>
     </row>
     <row r="471" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A471" s="5">
-        <v>5270</v>
-      </c>
-      <c r="B471" s="6" t="s">
-        <v>753</v>
+        <v>5269</v>
+      </c>
+      <c r="B471" s="7" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="472" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A472" s="5">
-        <v>5271</v>
+        <v>5270</v>
       </c>
       <c r="B472" s="6" t="s">
-        <v>754</v>
+        <v>671</v>
       </c>
     </row>
     <row r="473" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A473" s="5">
-        <v>5272</v>
-      </c>
-      <c r="B473" s="6" t="s">
-        <v>755</v>
+        <v>5271</v>
+      </c>
+      <c r="B473" s="7" t="s">
+        <v>672</v>
       </c>
     </row>
     <row r="474" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A474" s="5">
-        <v>5273</v>
+        <v>5272</v>
       </c>
       <c r="B474" s="6" t="s">
-        <v>756</v>
+        <v>673</v>
       </c>
     </row>
     <row r="475" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A475" s="5">
-        <v>5274</v>
-      </c>
-      <c r="B475" s="6" t="s">
-        <v>757</v>
+        <v>5273</v>
+      </c>
+      <c r="B475" s="7" t="s">
+        <v>674</v>
       </c>
     </row>
     <row r="476" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A476" s="5">
-        <v>5275</v>
+        <v>5274</v>
       </c>
       <c r="B476" s="6" t="s">
-        <v>758</v>
+        <v>675</v>
       </c>
     </row>
     <row r="477" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A477" s="5">
-        <v>5276</v>
-      </c>
-      <c r="B477" s="6" t="s">
-        <v>759</v>
+        <v>5275</v>
+      </c>
+      <c r="B477" s="7" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="478" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A478" s="5">
-        <v>5277</v>
+        <v>5276</v>
       </c>
       <c r="B478" s="6" t="s">
-        <v>760</v>
+        <v>677</v>
       </c>
     </row>
     <row r="479" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A479" s="5">
-        <v>5278</v>
-      </c>
-      <c r="B479" s="6" t="s">
-        <v>761</v>
+        <v>5277</v>
+      </c>
+      <c r="B479" s="7" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="480" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A480" s="5">
-        <v>5279</v>
+        <v>5278</v>
       </c>
       <c r="B480" s="6" t="s">
-        <v>762</v>
+        <v>679</v>
       </c>
     </row>
     <row r="481" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A481" s="5">
-        <v>5280</v>
-      </c>
-      <c r="B481" s="6" t="s">
-        <v>763</v>
+        <v>5279</v>
+      </c>
+      <c r="B481" s="7" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="482" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A482" s="5">
-        <v>5281</v>
+        <v>5280</v>
       </c>
       <c r="B482" s="6" t="s">
-        <v>764</v>
+        <v>681</v>
       </c>
     </row>
     <row r="483" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A483" s="5">
-        <v>5282</v>
-      </c>
-      <c r="B483" s="6" t="s">
-        <v>765</v>
+        <v>5281</v>
+      </c>
+      <c r="B483" s="7" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="484" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A484" s="5">
-        <v>5283</v>
+        <v>5282</v>
       </c>
       <c r="B484" s="6" t="s">
-        <v>766</v>
+        <v>683</v>
       </c>
     </row>
     <row r="485" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A485" s="5">
-        <v>5284</v>
-      </c>
-      <c r="B485" s="6" t="s">
-        <v>767</v>
+        <v>5283</v>
+      </c>
+      <c r="B485" s="7" t="s">
+        <v>684</v>
       </c>
     </row>
     <row r="486" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A486" s="5">
-        <v>5285</v>
+        <v>5284</v>
       </c>
       <c r="B486" s="6" t="s">
-        <v>768</v>
+        <v>685</v>
       </c>
     </row>
     <row r="487" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A487" s="5">
-        <v>5286</v>
-      </c>
-      <c r="B487" s="6" t="s">
-        <v>769</v>
+        <v>5285</v>
+      </c>
+      <c r="B487" s="7" t="s">
+        <v>686</v>
       </c>
     </row>
     <row r="488" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A488" s="5">
-        <v>5287</v>
+        <v>5286</v>
       </c>
       <c r="B488" s="6" t="s">
-        <v>770</v>
+        <v>687</v>
       </c>
     </row>
     <row r="489" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A489" s="5">
-        <v>5288</v>
-      </c>
-      <c r="B489" s="6" t="s">
-        <v>771</v>
+        <v>5287</v>
+      </c>
+      <c r="B489" s="7" t="s">
+        <v>688</v>
       </c>
     </row>
     <row r="490" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A490" s="5">
-        <v>5289</v>
+        <v>5288</v>
       </c>
       <c r="B490" s="6" t="s">
-        <v>772</v>
+        <v>689</v>
       </c>
     </row>
     <row r="491" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A491" s="5">
-        <v>5290</v>
-      </c>
-      <c r="B491" s="6" t="s">
-        <v>773</v>
+        <v>5289</v>
+      </c>
+      <c r="B491" s="7" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="492" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A492" s="5">
-        <v>5291</v>
+        <v>5290</v>
       </c>
       <c r="B492" s="6" t="s">
-        <v>774</v>
+        <v>691</v>
       </c>
     </row>
     <row r="493" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A493" s="5">
-        <v>5292</v>
-      </c>
-      <c r="B493" s="6" t="s">
-        <v>775</v>
+        <v>5291</v>
+      </c>
+      <c r="B493" s="7" t="s">
+        <v>692</v>
       </c>
     </row>
     <row r="494" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A494" s="5">
-        <v>5293</v>
+        <v>5292</v>
       </c>
       <c r="B494" s="6" t="s">
-        <v>776</v>
+        <v>693</v>
       </c>
     </row>
     <row r="495" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A495" s="5">
-        <v>5294</v>
-      </c>
-      <c r="B495" s="6" t="s">
-        <v>777</v>
+        <v>5293</v>
+      </c>
+      <c r="B495" s="7" t="s">
+        <v>694</v>
       </c>
     </row>
     <row r="496" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A496" s="5">
-        <v>5295</v>
+        <v>5294</v>
       </c>
       <c r="B496" s="6" t="s">
-        <v>778</v>
+        <v>695</v>
       </c>
     </row>
     <row r="497" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A497" s="5">
-        <v>5296</v>
-      </c>
-      <c r="B497" s="6" t="s">
-        <v>779</v>
+        <v>5295</v>
+      </c>
+      <c r="B497" s="7" t="s">
+        <v>696</v>
       </c>
     </row>
     <row r="498" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A498" s="5">
-        <v>5297</v>
+        <v>5296</v>
       </c>
       <c r="B498" s="6" t="s">
-        <v>780</v>
+        <v>697</v>
       </c>
     </row>
     <row r="499" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A499" s="5">
-        <v>5298</v>
-      </c>
-      <c r="B499" s="6" t="s">
-        <v>781</v>
+        <v>5297</v>
+      </c>
+      <c r="B499" s="7" t="s">
+        <v>698</v>
       </c>
     </row>
     <row r="500" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A500" s="5">
-        <v>5299</v>
+        <v>5298</v>
       </c>
       <c r="B500" s="6" t="s">
-        <v>782</v>
+        <v>699</v>
       </c>
     </row>
     <row r="501" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A501" s="5">
-        <v>5300</v>
-      </c>
-      <c r="B501" s="6" t="s">
-        <v>783</v>
+        <v>5299</v>
+      </c>
+      <c r="B501" s="7" t="s">
+        <v>700</v>
       </c>
     </row>
     <row r="502" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A502" s="5">
-        <v>5301</v>
+        <v>5300</v>
       </c>
       <c r="B502" s="6" t="s">
-        <v>784</v>
+        <v>701</v>
       </c>
     </row>
     <row r="503" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A503" s="5">
-        <v>5302</v>
-      </c>
-      <c r="B503" s="6" t="s">
-        <v>785</v>
+        <v>5301</v>
+      </c>
+      <c r="B503" s="7" t="s">
+        <v>702</v>
       </c>
     </row>
     <row r="504" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A504" s="5">
-        <v>5303</v>
+        <v>5302</v>
       </c>
       <c r="B504" s="6" t="s">
-        <v>786</v>
+        <v>703</v>
       </c>
     </row>
     <row r="505" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A505" s="5">
-        <v>5304</v>
-      </c>
-      <c r="B505" s="6" t="s">
-        <v>787</v>
+        <v>5303</v>
+      </c>
+      <c r="B505" s="7" t="s">
+        <v>704</v>
       </c>
     </row>
     <row r="506" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A506" s="5">
-        <v>5305</v>
+        <v>5304</v>
       </c>
       <c r="B506" s="6" t="s">
-        <v>788</v>
+        <v>705</v>
       </c>
     </row>
     <row r="507" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A507" s="5">
-        <v>5306</v>
-      </c>
-      <c r="B507" s="6" t="s">
-        <v>789</v>
+        <v>5305</v>
+      </c>
+      <c r="B507" s="7" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="508" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A508" s="5">
-        <v>5307</v>
+        <v>5306</v>
       </c>
       <c r="B508" s="6" t="s">
-        <v>790</v>
+        <v>707</v>
       </c>
     </row>
     <row r="509" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A509" s="5">
-        <v>5308</v>
-      </c>
-      <c r="B509" s="6" t="s">
-        <v>791</v>
+        <v>5307</v>
+      </c>
+      <c r="B509" s="7" t="s">
+        <v>708</v>
       </c>
     </row>
     <row r="510" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A510" s="5">
-        <v>5309</v>
+        <v>5308</v>
       </c>
       <c r="B510" s="6" t="s">
-        <v>792</v>
+        <v>709</v>
       </c>
     </row>
     <row r="511" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A511" s="5">
-        <v>5310</v>
-      </c>
-      <c r="B511" s="6" t="s">
-        <v>793</v>
+        <v>5309</v>
+      </c>
+      <c r="B511" s="7" t="s">
+        <v>710</v>
       </c>
     </row>
     <row r="512" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A512" s="5">
-        <v>5311</v>
+        <v>5310</v>
       </c>
       <c r="B512" s="6" t="s">
-        <v>794</v>
+        <v>711</v>
       </c>
     </row>
     <row r="513" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A513" s="5">
-        <v>5312</v>
-      </c>
-      <c r="B513" s="6" t="s">
-        <v>795</v>
+        <v>5311</v>
+      </c>
+      <c r="B513" s="7" t="s">
+        <v>712</v>
       </c>
     </row>
     <row r="514" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A514" s="5">
-        <v>5313</v>
+        <v>5312</v>
       </c>
       <c r="B514" s="6" t="s">
-        <v>796</v>
+        <v>713</v>
       </c>
     </row>
     <row r="515" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A515" s="5">
-        <v>5314</v>
-      </c>
-      <c r="B515" s="6" t="s">
-        <v>797</v>
+        <v>5313</v>
+      </c>
+      <c r="B515" s="7" t="s">
+        <v>714</v>
       </c>
     </row>
     <row r="516" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A516" s="5">
-        <v>5315</v>
+        <v>5314</v>
       </c>
       <c r="B516" s="6" t="s">
-        <v>798</v>
+        <v>715</v>
       </c>
     </row>
     <row r="517" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A517" s="5">
-        <v>5316</v>
-      </c>
-      <c r="B517" s="6" t="s">
-        <v>799</v>
+        <v>5315</v>
+      </c>
+      <c r="B517" s="7" t="s">
+        <v>716</v>
       </c>
     </row>
     <row r="518" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A518" s="5">
-        <v>5317</v>
+        <v>5316</v>
       </c>
       <c r="B518" s="6" t="s">
-        <v>800</v>
+        <v>717</v>
       </c>
     </row>
     <row r="519" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A519" s="5">
-        <v>5318</v>
-      </c>
-      <c r="B519" s="6" t="s">
-        <v>801</v>
+        <v>5317</v>
+      </c>
+      <c r="B519" s="7" t="s">
+        <v>718</v>
       </c>
     </row>
     <row r="520" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A520" s="5">
-        <v>5319</v>
+        <v>5318</v>
       </c>
       <c r="B520" s="6" t="s">
-        <v>802</v>
+        <v>719</v>
       </c>
     </row>
     <row r="521" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A521" s="5">
-        <v>5320</v>
-      </c>
-      <c r="B521" s="6" t="s">
-        <v>803</v>
+        <v>5319</v>
+      </c>
+      <c r="B521" s="7" t="s">
+        <v>720</v>
       </c>
     </row>
     <row r="522" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A522" s="5">
-        <v>5321</v>
+        <v>5320</v>
       </c>
       <c r="B522" s="6" t="s">
-        <v>804</v>
+        <v>721</v>
       </c>
     </row>
     <row r="523" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A523" s="5">
-        <v>5322</v>
-      </c>
-      <c r="B523" s="6" t="s">
-        <v>805</v>
+        <v>5321</v>
+      </c>
+      <c r="B523" s="7" t="s">
+        <v>722</v>
       </c>
     </row>
     <row r="524" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A524" s="5">
-        <v>5323</v>
+        <v>5322</v>
       </c>
       <c r="B524" s="6" t="s">
-        <v>806</v>
+        <v>723</v>
       </c>
     </row>
     <row r="525" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A525" s="5">
-        <v>5324</v>
-      </c>
-      <c r="B525" s="6" t="s">
-        <v>807</v>
+        <v>5323</v>
+      </c>
+      <c r="B525" s="7" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="526" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A526" s="5">
-        <v>5325</v>
+        <v>5324</v>
       </c>
       <c r="B526" s="6" t="s">
-        <v>808</v>
+        <v>725</v>
       </c>
     </row>
     <row r="527" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A527" s="5">
-        <v>5326</v>
-      </c>
-      <c r="B527" s="6" t="s">
-        <v>809</v>
+        <v>5325</v>
+      </c>
+      <c r="B527" s="7" t="s">
+        <v>726</v>
       </c>
     </row>
     <row r="528" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A528" s="5">
-        <v>5327</v>
+        <v>5326</v>
       </c>
       <c r="B528" s="6" t="s">
-        <v>810</v>
+        <v>727</v>
       </c>
     </row>
     <row r="529" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A529" s="5">
-        <v>5328</v>
-      </c>
-      <c r="B529" s="6" t="s">
-        <v>811</v>
+        <v>5327</v>
+      </c>
+      <c r="B529" s="7" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="530" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A530" s="5">
-        <v>5329</v>
+        <v>5328</v>
       </c>
       <c r="B530" s="6" t="s">
-        <v>812</v>
+        <v>729</v>
       </c>
     </row>
     <row r="531" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A531" s="5">
-        <v>5330</v>
-      </c>
-      <c r="B531" s="6" t="s">
-        <v>813</v>
+        <v>5329</v>
+      </c>
+      <c r="B531" s="7" t="s">
+        <v>730</v>
       </c>
     </row>
     <row r="532" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A532" s="5">
-        <v>5331</v>
+        <v>5330</v>
       </c>
       <c r="B532" s="6" t="s">
-        <v>814</v>
+        <v>731</v>
       </c>
     </row>
     <row r="533" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A533" s="5">
-        <v>5332</v>
-      </c>
-      <c r="B533" s="6" t="s">
-        <v>815</v>
+        <v>5331</v>
+      </c>
+      <c r="B533" s="7" t="s">
+        <v>732</v>
       </c>
     </row>
     <row r="534" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A534" s="5">
-        <v>5333</v>
+        <v>5332</v>
       </c>
       <c r="B534" s="6" t="s">
-        <v>816</v>
+        <v>733</v>
       </c>
     </row>
     <row r="535" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A535" s="5">
-        <v>5334</v>
-      </c>
-      <c r="B535" s="6" t="s">
-        <v>817</v>
+        <v>5333</v>
+      </c>
+      <c r="B535" s="7" t="s">
+        <v>734</v>
       </c>
     </row>
     <row r="536" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A536" s="5">
-        <v>5335</v>
+        <v>5334</v>
       </c>
       <c r="B536" s="6" t="s">
-        <v>818</v>
+        <v>735</v>
       </c>
     </row>
     <row r="537" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A537" s="5">
-        <v>5336</v>
-      </c>
-      <c r="B537" s="6" t="s">
-        <v>819</v>
+        <v>5335</v>
+      </c>
+      <c r="B537" s="7" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="538" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A538" s="5">
-        <v>5337</v>
+        <v>5336</v>
       </c>
       <c r="B538" s="6" t="s">
-        <v>820</v>
+        <v>737</v>
       </c>
     </row>
     <row r="539" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A539" s="5">
-        <v>5338</v>
-      </c>
-      <c r="B539" s="6" t="s">
-        <v>821</v>
+        <v>5337</v>
+      </c>
+      <c r="B539" s="7" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="540" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A540" s="5">
-        <v>5339</v>
+        <v>5338</v>
       </c>
       <c r="B540" s="6" t="s">
-        <v>822</v>
+        <v>739</v>
       </c>
     </row>
     <row r="541" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A541" s="5">
-        <v>5340</v>
-      </c>
-      <c r="B541" s="6" t="s">
-        <v>823</v>
+        <v>5339</v>
+      </c>
+      <c r="B541" s="7" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="542" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A542" s="5">
-        <v>5341</v>
+        <v>5340</v>
       </c>
       <c r="B542" s="6" t="s">
-        <v>824</v>
+        <v>741</v>
       </c>
     </row>
     <row r="543" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A543" s="5">
-        <v>5342</v>
-      </c>
-      <c r="B543" s="6" t="s">
-        <v>825</v>
+        <v>5341</v>
+      </c>
+      <c r="B543" s="7" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="544" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A544" s="5">
-        <v>5343</v>
+        <v>5342</v>
       </c>
       <c r="B544" s="6" t="s">
-        <v>826</v>
+        <v>743</v>
       </c>
     </row>
     <row r="545" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A545" s="5">
-        <v>5344</v>
-      </c>
-      <c r="B545" s="6" t="s">
-        <v>827</v>
+        <v>5343</v>
+      </c>
+      <c r="B545" s="7" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="546" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A546" s="5">
-        <v>5345</v>
+        <v>5344</v>
       </c>
       <c r="B546" s="6" t="s">
-        <v>828</v>
+        <v>745</v>
       </c>
     </row>
     <row r="547" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A547" s="5">
-        <v>5346</v>
-      </c>
-      <c r="B547" s="6" t="s">
-        <v>829</v>
+        <v>5345</v>
+      </c>
+      <c r="B547" s="7" t="s">
+        <v>746</v>
       </c>
     </row>
     <row r="548" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A548" s="5">
-        <v>5347</v>
+        <v>5346</v>
       </c>
       <c r="B548" s="6" t="s">
-        <v>830</v>
+        <v>747</v>
       </c>
     </row>
     <row r="549" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A549" s="5">
-        <v>5348</v>
-      </c>
-      <c r="B549" s="6" t="s">
-        <v>831</v>
+        <v>5347</v>
+      </c>
+      <c r="B549" s="7" t="s">
+        <v>748</v>
       </c>
     </row>
     <row r="550" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A550" s="5">
-        <v>5349</v>
+        <v>5348</v>
       </c>
       <c r="B550" s="6" t="s">
-        <v>832</v>
+        <v>749</v>
       </c>
     </row>
     <row r="551" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A551" s="5">
-        <v>5350</v>
-      </c>
-      <c r="B551" s="6" t="s">
-        <v>833</v>
+        <v>5349</v>
+      </c>
+      <c r="B551" s="7" t="s">
+        <v>750</v>
       </c>
     </row>
     <row r="552" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A552" s="5">
-        <v>5351</v>
+        <v>5350</v>
       </c>
       <c r="B552" s="6" t="s">
-        <v>834</v>
+        <v>751</v>
       </c>
     </row>
     <row r="553" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A553" s="5">
-        <v>5352</v>
-      </c>
-      <c r="B553" s="6" t="s">
-        <v>835</v>
+        <v>5351</v>
+      </c>
+      <c r="B553" s="7" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="554" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A554" s="5">
-        <v>5353</v>
+        <v>5352</v>
       </c>
       <c r="B554" s="6" t="s">
-        <v>836</v>
+        <v>753</v>
       </c>
     </row>
     <row r="555" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A555" s="5">
-        <v>5354</v>
-      </c>
-      <c r="B555" s="6" t="s">
-        <v>837</v>
+        <v>5353</v>
+      </c>
+      <c r="B555" s="7" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="556" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A556" s="5">
-        <v>5355</v>
+        <v>5354</v>
       </c>
       <c r="B556" s="6" t="s">
-        <v>838</v>
+        <v>755</v>
       </c>
     </row>
     <row r="557" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A557" s="5">
-        <v>5356</v>
-      </c>
-      <c r="B557" s="6" t="s">
-        <v>839</v>
+        <v>5355</v>
+      </c>
+      <c r="B557" s="7" t="s">
+        <v>756</v>
       </c>
     </row>
     <row r="558" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A558" s="5">
-        <v>5357</v>
+        <v>5356</v>
       </c>
       <c r="B558" s="6" t="s">
-        <v>840</v>
+        <v>757</v>
       </c>
     </row>
     <row r="559" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A559" s="5">
-        <v>5358</v>
-      </c>
-      <c r="B559" s="6" t="s">
-        <v>841</v>
+        <v>5357</v>
+      </c>
+      <c r="B559" s="7" t="s">
+        <v>758</v>
       </c>
     </row>
     <row r="560" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A560" s="5">
-        <v>5359</v>
+        <v>5358</v>
       </c>
       <c r="B560" s="6" t="s">
-        <v>842</v>
+        <v>759</v>
       </c>
     </row>
     <row r="561" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A561" s="5">
-        <v>5360</v>
-      </c>
-      <c r="B561" s="6" t="s">
-        <v>843</v>
+        <v>5359</v>
+      </c>
+      <c r="B561" s="7" t="s">
+        <v>760</v>
       </c>
     </row>
     <row r="562" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A562" s="5">
-        <v>5361</v>
+        <v>5360</v>
       </c>
       <c r="B562" s="6" t="s">
-        <v>844</v>
+        <v>761</v>
       </c>
     </row>
     <row r="563" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A563" s="5">
-        <v>5362</v>
-      </c>
-      <c r="B563" s="6" t="s">
-        <v>845</v>
+        <v>5361</v>
+      </c>
+      <c r="B563" s="7" t="s">
+        <v>762</v>
       </c>
     </row>
     <row r="564" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A564" s="5">
-        <v>5363</v>
+        <v>5362</v>
       </c>
       <c r="B564" s="6" t="s">
-        <v>846</v>
+        <v>763</v>
       </c>
     </row>
     <row r="565" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A565" s="5">
-        <v>5364</v>
-      </c>
-      <c r="B565" s="6" t="s">
-        <v>847</v>
+        <v>5363</v>
+      </c>
+      <c r="B565" s="7" t="s">
+        <v>764</v>
       </c>
     </row>
     <row r="566" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A566" s="5">
-        <v>5365</v>
+        <v>5364</v>
       </c>
       <c r="B566" s="6" t="s">
-        <v>848</v>
+        <v>765</v>
       </c>
     </row>
     <row r="567" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A567" s="5">
-        <v>5366</v>
-      </c>
-      <c r="B567" s="6" t="s">
-        <v>849</v>
+        <v>5365</v>
+      </c>
+      <c r="B567" s="7" t="s">
+        <v>766</v>
       </c>
     </row>
     <row r="568" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A568" s="5">
-        <v>5367</v>
+        <v>5366</v>
       </c>
       <c r="B568" s="6" t="s">
-        <v>850</v>
+        <v>767</v>
       </c>
     </row>
     <row r="569" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A569" s="5">
-        <v>5368</v>
-      </c>
-      <c r="B569" s="6" t="s">
-        <v>851</v>
+        <v>5367</v>
+      </c>
+      <c r="B569" s="7" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="570" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A570" s="5">
-        <v>5369</v>
+        <v>5368</v>
       </c>
       <c r="B570" s="6" t="s">
-        <v>852</v>
+        <v>769</v>
       </c>
     </row>
     <row r="571" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A571" s="5">
-        <v>5370</v>
-      </c>
-      <c r="B571" s="6" t="s">
-        <v>853</v>
+        <v>5369</v>
+      </c>
+      <c r="B571" s="7" t="s">
+        <v>770</v>
       </c>
     </row>
     <row r="572" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A572" s="5">
-        <v>5371</v>
+        <v>5370</v>
       </c>
       <c r="B572" s="6" t="s">
-        <v>854</v>
+        <v>771</v>
       </c>
     </row>
     <row r="573" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A573" s="5">
-        <v>5372</v>
-      </c>
-      <c r="B573" s="6" t="s">
-        <v>855</v>
+        <v>5371</v>
+      </c>
+      <c r="B573" s="7" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="574" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A574" s="5">
-        <v>5373</v>
+        <v>5372</v>
       </c>
       <c r="B574" s="6" t="s">
-        <v>856</v>
+        <v>773</v>
       </c>
     </row>
     <row r="575" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A575" s="5">
-        <v>5374</v>
-      </c>
-      <c r="B575" s="6" t="s">
-        <v>857</v>
+        <v>5373</v>
+      </c>
+      <c r="B575" s="7" t="s">
+        <v>774</v>
       </c>
     </row>
     <row r="576" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A576" s="5">
-        <v>5375</v>
+        <v>5374</v>
       </c>
       <c r="B576" s="6" t="s">
-        <v>858</v>
+        <v>775</v>
       </c>
     </row>
     <row r="577" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A577" s="5">
-        <v>5376</v>
-      </c>
-      <c r="B577" s="6" t="s">
-        <v>859</v>
+        <v>5375</v>
+      </c>
+      <c r="B577" s="7" t="s">
+        <v>776</v>
       </c>
     </row>
     <row r="578" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A578" s="5">
-        <v>5377</v>
+        <v>5376</v>
       </c>
       <c r="B578" s="6" t="s">
-        <v>860</v>
+        <v>777</v>
       </c>
     </row>
     <row r="579" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A579" s="5">
-        <v>5378</v>
-      </c>
-      <c r="B579" s="6" t="s">
-        <v>861</v>
+        <v>5377</v>
+      </c>
+      <c r="B579" s="7" t="s">
+        <v>778</v>
       </c>
     </row>
     <row r="580" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A580" s="5">
-        <v>5379</v>
+        <v>5378</v>
       </c>
       <c r="B580" s="6" t="s">
-        <v>862</v>
+        <v>779</v>
       </c>
     </row>
     <row r="581" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A581" s="5">
-        <v>5380</v>
-      </c>
-      <c r="B581" s="6" t="s">
-        <v>863</v>
+        <v>5379</v>
+      </c>
+      <c r="B581" s="7" t="s">
+        <v>780</v>
       </c>
     </row>
     <row r="582" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A582" s="5">
-        <v>5381</v>
+        <v>5380</v>
       </c>
       <c r="B582" s="6" t="s">
-        <v>864</v>
+        <v>781</v>
       </c>
     </row>
     <row r="583" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A583" s="5">
-        <v>5382</v>
-      </c>
-      <c r="B583" s="6" t="s">
-        <v>865</v>
+        <v>5381</v>
+      </c>
+      <c r="B583" s="7" t="s">
+        <v>782</v>
       </c>
     </row>
     <row r="584" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A584" s="5">
-        <v>5383</v>
+        <v>5382</v>
       </c>
       <c r="B584" s="6" t="s">
-        <v>866</v>
+        <v>783</v>
       </c>
     </row>
     <row r="585" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A585" s="5">
-        <v>5384</v>
-      </c>
-      <c r="B585" s="6" t="s">
-        <v>867</v>
+        <v>5383</v>
+      </c>
+      <c r="B585" s="7" t="s">
+        <v>784</v>
       </c>
     </row>
     <row r="586" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A586" s="5">
-        <v>5385</v>
+        <v>5384</v>
       </c>
       <c r="B586" s="6" t="s">
-        <v>868</v>
+        <v>785</v>
       </c>
     </row>
     <row r="587" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A587" s="5">
-        <v>5386</v>
-      </c>
-      <c r="B587" s="6" t="s">
-        <v>869</v>
+        <v>5385</v>
+      </c>
+      <c r="B587" s="7" t="s">
+        <v>786</v>
       </c>
     </row>
     <row r="588" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A588" s="5">
-        <v>5387</v>
+        <v>5386</v>
       </c>
       <c r="B588" s="6" t="s">
-        <v>870</v>
+        <v>787</v>
       </c>
     </row>
     <row r="589" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A589" s="5">
-        <v>5388</v>
-      </c>
-      <c r="B589" s="6" t="s">
-        <v>871</v>
+        <v>5387</v>
+      </c>
+      <c r="B589" s="7" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="590" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A590" s="5">
-        <v>5389</v>
+        <v>5388</v>
       </c>
       <c r="B590" s="6" t="s">
-        <v>872</v>
+        <v>789</v>
       </c>
     </row>
     <row r="591" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A591" s="5">
-        <v>5390</v>
-      </c>
-      <c r="B591" s="6" t="s">
-        <v>873</v>
+        <v>5389</v>
+      </c>
+      <c r="B591" s="7" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="592" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A592" s="5">
-        <v>5391</v>
+        <v>5390</v>
       </c>
       <c r="B592" s="6" t="s">
-        <v>874</v>
+        <v>791</v>
       </c>
     </row>
     <row r="593" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A593" s="5">
-        <v>5392</v>
-      </c>
-      <c r="B593" s="6" t="s">
-        <v>875</v>
+        <v>5391</v>
+      </c>
+      <c r="B593" s="7" t="s">
+        <v>792</v>
       </c>
     </row>
     <row r="594" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A594" s="5">
-        <v>5393</v>
+        <v>5392</v>
       </c>
       <c r="B594" s="6" t="s">
-        <v>876</v>
+        <v>793</v>
       </c>
     </row>
     <row r="595" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A595" s="5">
-        <v>5394</v>
-      </c>
-      <c r="B595" s="6" t="s">
-        <v>877</v>
+        <v>5393</v>
+      </c>
+      <c r="B595" s="7" t="s">
+        <v>794</v>
       </c>
     </row>
     <row r="596" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A596" s="5">
-        <v>5395</v>
+        <v>5394</v>
       </c>
       <c r="B596" s="6" t="s">
-        <v>878</v>
+        <v>795</v>
       </c>
     </row>
     <row r="597" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A597" s="5">
-        <v>5396</v>
-      </c>
-      <c r="B597" s="6" t="s">
-        <v>879</v>
+        <v>5395</v>
+      </c>
+      <c r="B597" s="7" t="s">
+        <v>796</v>
       </c>
     </row>
     <row r="598" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A598" s="5">
-        <v>5397</v>
+        <v>5396</v>
       </c>
       <c r="B598" s="6" t="s">
-        <v>880</v>
+        <v>797</v>
       </c>
     </row>
     <row r="599" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A599" s="5">
-        <v>5398</v>
-      </c>
-      <c r="B599" s="6" t="s">
-        <v>881</v>
+        <v>5397</v>
+      </c>
+      <c r="B599" s="7" t="s">
+        <v>798</v>
       </c>
     </row>
     <row r="600" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A600" s="5">
-        <v>5399</v>
+        <v>5398</v>
       </c>
       <c r="B600" s="6" t="s">
-        <v>882</v>
+        <v>799</v>
       </c>
     </row>
     <row r="601" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A601" s="5">
-        <v>5400</v>
-      </c>
-      <c r="B601" s="6" t="s">
-        <v>883</v>
+        <v>5399</v>
+      </c>
+      <c r="B601" s="7" t="s">
+        <v>800</v>
       </c>
     </row>
   </sheetData>
